--- a/resources/CS-Module-Marks-Tracker-blank.xlsx
+++ b/resources/CS-Module-Marks-Tracker-blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\matth\Documents\school\UNI\Birmingham\Comp. Sci\CS Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\matth\Documents\school\UNI\Birmingham\Comp. Sci\CS Resources\FirstYearCSResources\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C64B75-E091-4629-899D-E3F5D24E8E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E66D0-FDFC-4B27-B5EE-6051F84AB81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="7" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="120">
   <si>
     <t>Module</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>Maths &amp; Logic in Comp. Sci.</t>
+  </si>
+  <si>
+    <t>Assignment 1</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,115 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="75">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -572,34 +683,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -628,34 +711,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -715,27 +770,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -2736,15 +2770,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>20411</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>265386</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>124811</xdr:rowOff>
+      <xdr:colOff>285797</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2760,8 +2794,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="1484586" cy="505811"/>
+          <a:off x="1098097" y="1261382"/>
+          <a:ext cx="1669643" cy="505811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3274,16 +3308,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{20D3C205-D24B-481F-A0A5-97A6101B312A}" name="DSA" displayName="DSA" ref="A2:G7" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{20D3C205-D24B-481F-A0A5-97A6101B312A}" name="DSA" displayName="DSA" ref="A2:G7" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A2:G7" xr:uid="{20D3C205-D24B-481F-A0A5-97A6101B312A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2270E0A8-E28C-4AF9-BFC1-A412E0725E4C}" name="Assessment" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{7052E14A-65AF-43E2-8483-D779564FD6C0}" name="Type" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{63A96BCC-5661-4CA8-9927-9E1FA068D3C4}" name="Date" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{1F33FCAA-DEEE-45E2-89E6-03E71911E17F}" name="Weight" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{F1F6B912-427B-4B79-AD72-0E5794AA2EB0}" name="Marks" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{C6CD4014-F914-41A7-9044-7D2D5C20AB20}" name="Out Of" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{21C62A9F-30A4-4FEA-9205-6025E71D32F4}" name="Percent" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{2270E0A8-E28C-4AF9-BFC1-A412E0725E4C}" name="Assessment" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{7052E14A-65AF-43E2-8483-D779564FD6C0}" name="Type" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{63A96BCC-5661-4CA8-9927-9E1FA068D3C4}" name="Date" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{1F33FCAA-DEEE-45E2-89E6-03E71911E17F}" name="Weight" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{F1F6B912-427B-4B79-AD72-0E5794AA2EB0}" name="Marks" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{C6CD4014-F914-41A7-9044-7D2D5C20AB20}" name="Out Of" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{21C62A9F-30A4-4FEA-9205-6025E71D32F4}" name="Percent" dataDxfId="66">
       <calculatedColumnFormula>IFERROR(DSA[[#This Row],[Marks]]/DSA[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3292,16 +3326,34 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}" name="MLFCS" displayName="MLFCS" ref="A2:G15" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F35ED7B2-2694-475F-9750-DB6006F821CB}" name="OOP_9" displayName="OOP_9" ref="A2:G5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A2:G5" xr:uid="{F35ED7B2-2694-475F-9750-DB6006F821CB}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E80B8A59-3B9F-4512-8A91-0C6601A07EE2}" name="Assessment" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{E5D6FFF2-E218-4868-ADD3-69587A76F673}" name="Type" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{59C1D46E-21B1-49C7-8032-C8F8375176BE}" name="Date" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{74073497-F8B4-4CA4-AE6C-18AF43D79BB4}" name="Weight" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{E1196646-88EC-4C14-B54C-30FABBD9067B}" name="Marks" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F7783659-DAB3-47F3-B843-4B680178AE5A}" name="Out Of" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{63276932-3C7D-439A-979B-4B0ECD257653}" name="Percent" dataDxfId="11">
+      <calculatedColumnFormula>IFERROR(OOP_9[[#This Row],[Marks]]/OOP_9[[#This Row],[Out Of]],0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}" name="MLFCS" displayName="MLFCS" ref="A2:G15" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A2:G15" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{15DC20F1-D841-4813-BF61-022F87C55DD2}" name="Assessment" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{98565EC1-AB66-491E-907F-60B1C3C06AED}" name="Type" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{E226E69F-80DF-46D2-B2DB-919F4093C819}" name="Date" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{14002C37-7FC0-4B1E-9971-2BD856C2B2DB}" name="Weight" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{4896E73E-0ED6-41FF-AEF7-13DD8D5F34A7}" name="Marks" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{1D2BE4DF-6511-493E-AE36-FF8A538CC8FF}" name="Out Of" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{C9A7BCBC-9AE4-4642-AEA7-952B70FD4E74}" name="Percent" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{15DC20F1-D841-4813-BF61-022F87C55DD2}" name="Assessment" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{98565EC1-AB66-491E-907F-60B1C3C06AED}" name="Type" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{E226E69F-80DF-46D2-B2DB-919F4093C819}" name="Date" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{14002C37-7FC0-4B1E-9971-2BD856C2B2DB}" name="Weight" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{4896E73E-0ED6-41FF-AEF7-13DD8D5F34A7}" name="Marks" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{1D2BE4DF-6511-493E-AE36-FF8A538CC8FF}" name="Out Of" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{C9A7BCBC-9AE4-4642-AEA7-952B70FD4E74}" name="Percent" dataDxfId="57">
       <calculatedColumnFormula>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3309,17 +3361,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}" name="OOP" displayName="OOP" ref="A2:G10" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}" name="OOP" displayName="OOP" ref="A2:G10" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A2:G10" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8AF69D61-70B0-4B62-8A94-84FFD4FF1E30}" name="Assessment" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{6115B625-2524-4C13-BFC6-76AD80B08F00}" name="Type" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{8E7F7644-5258-47D7-BE01-F1673A9FC9F3}" name="Date" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{A9B92261-E9DB-46C0-9F8E-65E2E3C608F6}" name="Weight" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{CB9AA16B-15AA-4947-B2F6-F7C81AF67420}" name="Marks" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{9B24B904-A5F0-44D1-ACED-E4E0338FA6DF}" name="Out Of" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{1A8558B6-1346-45CB-8F71-8D91CA9265F5}" name="Percent" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{8AF69D61-70B0-4B62-8A94-84FFD4FF1E30}" name="Assessment" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{6115B625-2524-4C13-BFC6-76AD80B08F00}" name="Type" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{8E7F7644-5258-47D7-BE01-F1673A9FC9F3}" name="Date" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{A9B92261-E9DB-46C0-9F8E-65E2E3C608F6}" name="Weight" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{CB9AA16B-15AA-4947-B2F6-F7C81AF67420}" name="Marks" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{9B24B904-A5F0-44D1-ACED-E4E0338FA6DF}" name="Out Of" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{1A8558B6-1346-45CB-8F71-8D91CA9265F5}" name="Percent" dataDxfId="48">
       <calculatedColumnFormula>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3327,63 +3379,63 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A2:E14" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E14">
     <sortCondition ref="C2:C14"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="29"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:E27" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
-    <sortCondition ref="D1:D27"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A2:D16" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:E27" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
+    <sortCondition ref="D1:D27"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A2:D16" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A2:F11" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3811,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FB547B-EB02-4962-87B0-376B1EBB9A6D}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,13 +4096,13 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E14">
-    <cfRule type="containsBlanks" dxfId="38" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="10" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThanOrEqual">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4828,18 +4880,18 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
       <formula>120</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="20" priority="4" operator="notContains" text="120">
+    <cfRule type="notContainsText" dxfId="6" priority="4" operator="notContains" text="120">
       <formula>ISERROR(SEARCH("120",G5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5156,18 +5208,18 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>180</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5199,7 +5251,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E6"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5437,16 +5489,208 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC581F71-13EA-4CC9-8894-8953E0805102}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D9:D10"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44634</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>100</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IFERROR(OOP_9[[#This Row],[Marks]]/OOP_9[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="7">
+        <f>SUMIF(OOP_9[Type],"AS",OOP_9[Weight])</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <f>(SUMIF(OOP_9[Type],"AS",OOP_9[Percent]))/COUNTIF(OOP_9[Type],"AS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44684</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>100</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IFERROR(OOP_9[[#This Row],[Marks]]/OOP_9[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7">
+        <f>SUM(J3:J3)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <f>(J3*K3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44697</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>100</v>
+      </c>
+      <c r="G5" s="5">
+        <f>IFERROR(OOP_9[[#This Row],[Marks]]/OOP_9[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5862,8 +6106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694825E1-042E-4FA4-8770-4069ED8A6469}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E10"/>
+    <sheetView topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/CS-Module-Marks-Tracker-blank.xlsx
+++ b/resources/CS-Module-Marks-Tracker-blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\matth\Documents\school\UNI\Birmingham\Comp. Sci\CS Resources\FirstYearCSResources\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E66D0-FDFC-4B27-B5EE-6051F84AB81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60B0E0C-8368-4161-9A75-CDCC73DFF335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="7" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="122">
   <si>
     <t>Module</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>Assignment 1</t>
+  </si>
+  <si>
+    <t>Quiz 5</t>
+  </si>
+  <si>
+    <t>Quizzes</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="84">
     <dxf>
       <fill>
         <patternFill>
@@ -614,37 +620,6 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -770,6 +745,68 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -2567,16 +2604,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>191894</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>236811</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>124811</xdr:rowOff>
+      <xdr:colOff>657305</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2592,8 +2629,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="581025" y="190500"/>
-          <a:ext cx="1484586" cy="505811"/>
+          <a:off x="1269845" y="1954716"/>
+          <a:ext cx="2017289" cy="505811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3308,6 +3345,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9EA4CCE4-E406-4481-AA90-9A07CAD5BE7E}" name="OOP_10" displayName="OOP_10" ref="A2:G8" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A2:G8" xr:uid="{9EA4CCE4-E406-4481-AA90-9A07CAD5BE7E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{69A62117-FC87-4ECC-AB98-EF35B05A468E}" name="Assessment" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{60753137-725D-4636-8C02-EC3D7FD23525}" name="Type" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{05971888-5882-46B9-8195-7C40FE55BDBF}" name="Date" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{79E72D4D-8ED7-4B0C-8D4A-E1F6B54F9E04}" name="Weight" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{25BA5AEC-6E95-498F-9617-9DADAFA4F49D}" name="Marks" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{8BC298BB-3525-4A67-928C-CDEF4817E4CE}" name="Out Of" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{AD958F54-11F6-4131-85C7-2EB5FF82A984}" name="Percent" dataDxfId="75">
+      <calculatedColumnFormula>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{20D3C205-D24B-481F-A0A5-97A6101B312A}" name="DSA" displayName="DSA" ref="A2:G7" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A2:G7" xr:uid="{20D3C205-D24B-481F-A0A5-97A6101B312A}"/>
   <tableColumns count="7">
@@ -3325,17 +3380,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F35ED7B2-2694-475F-9750-DB6006F821CB}" name="OOP_9" displayName="OOP_9" ref="A2:G5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F35ED7B2-2694-475F-9750-DB6006F821CB}" name="OOP_9" displayName="OOP_9" ref="A2:G5" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A2:G5" xr:uid="{F35ED7B2-2694-475F-9750-DB6006F821CB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E80B8A59-3B9F-4512-8A91-0C6601A07EE2}" name="Assessment" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{E5D6FFF2-E218-4868-ADD3-69587A76F673}" name="Type" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{59C1D46E-21B1-49C7-8032-C8F8375176BE}" name="Date" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{74073497-F8B4-4CA4-AE6C-18AF43D79BB4}" name="Weight" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{E1196646-88EC-4C14-B54C-30FABBD9067B}" name="Marks" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{F7783659-DAB3-47F3-B843-4B680178AE5A}" name="Out Of" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{63276932-3C7D-439A-979B-4B0ECD257653}" name="Percent" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{E80B8A59-3B9F-4512-8A91-0C6601A07EE2}" name="Assessment" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{E5D6FFF2-E218-4868-ADD3-69587A76F673}" name="Type" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{59C1D46E-21B1-49C7-8032-C8F8375176BE}" name="Date" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{74073497-F8B4-4CA4-AE6C-18AF43D79BB4}" name="Weight" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{E1196646-88EC-4C14-B54C-30FABBD9067B}" name="Marks" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{F7783659-DAB3-47F3-B843-4B680178AE5A}" name="Out Of" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{63276932-3C7D-439A-979B-4B0ECD257653}" name="Percent" dataDxfId="57">
       <calculatedColumnFormula>IFERROR(OOP_9[[#This Row],[Marks]]/OOP_9[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3343,17 +3398,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}" name="MLFCS" displayName="MLFCS" ref="A2:G15" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}" name="MLFCS" displayName="MLFCS" ref="A2:G15" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A2:G15" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{15DC20F1-D841-4813-BF61-022F87C55DD2}" name="Assessment" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{98565EC1-AB66-491E-907F-60B1C3C06AED}" name="Type" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{E226E69F-80DF-46D2-B2DB-919F4093C819}" name="Date" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{14002C37-7FC0-4B1E-9971-2BD856C2B2DB}" name="Weight" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{4896E73E-0ED6-41FF-AEF7-13DD8D5F34A7}" name="Marks" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{1D2BE4DF-6511-493E-AE36-FF8A538CC8FF}" name="Out Of" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{C9A7BCBC-9AE4-4642-AEA7-952B70FD4E74}" name="Percent" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{15DC20F1-D841-4813-BF61-022F87C55DD2}" name="Assessment" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{98565EC1-AB66-491E-907F-60B1C3C06AED}" name="Type" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{E226E69F-80DF-46D2-B2DB-919F4093C819}" name="Date" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{14002C37-7FC0-4B1E-9971-2BD856C2B2DB}" name="Weight" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{4896E73E-0ED6-41FF-AEF7-13DD8D5F34A7}" name="Marks" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{1D2BE4DF-6511-493E-AE36-FF8A538CC8FF}" name="Out Of" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{C9A7BCBC-9AE4-4642-AEA7-952B70FD4E74}" name="Percent" dataDxfId="48">
       <calculatedColumnFormula>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3361,17 +3416,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}" name="OOP" displayName="OOP" ref="A2:G10" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}" name="OOP" displayName="OOP" ref="A2:G10" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A2:G10" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8AF69D61-70B0-4B62-8A94-84FFD4FF1E30}" name="Assessment" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{6115B625-2524-4C13-BFC6-76AD80B08F00}" name="Type" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{8E7F7644-5258-47D7-BE01-F1673A9FC9F3}" name="Date" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{A9B92261-E9DB-46C0-9F8E-65E2E3C608F6}" name="Weight" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{CB9AA16B-15AA-4947-B2F6-F7C81AF67420}" name="Marks" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{9B24B904-A5F0-44D1-ACED-E4E0338FA6DF}" name="Out Of" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{1A8558B6-1346-45CB-8F71-8D91CA9265F5}" name="Percent" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{8AF69D61-70B0-4B62-8A94-84FFD4FF1E30}" name="Assessment" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{6115B625-2524-4C13-BFC6-76AD80B08F00}" name="Type" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{8E7F7644-5258-47D7-BE01-F1673A9FC9F3}" name="Date" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{A9B92261-E9DB-46C0-9F8E-65E2E3C608F6}" name="Weight" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{CB9AA16B-15AA-4947-B2F6-F7C81AF67420}" name="Marks" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{9B24B904-A5F0-44D1-ACED-E4E0338FA6DF}" name="Out Of" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{1A8558B6-1346-45CB-8F71-8D91CA9265F5}" name="Percent" dataDxfId="39">
       <calculatedColumnFormula>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3379,63 +3434,63 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A2:E14" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E14">
     <sortCondition ref="C2:C14"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="41"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A1:E27" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
-    <sortCondition ref="D1:D27"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A2:D16" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:E27" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
+    <sortCondition ref="D1:D27"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A2:D16" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A2:F11" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3740,7 +3795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70942EC-847E-4481-B682-80D0CF4856E5}">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3864,7 +3919,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3969,7 +4024,10 @@
       <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="8">
+        <f>'AI1'!K5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -3984,7 +4042,10 @@
       <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="8">
+        <f>FSAD!K4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -5233,16 +5294,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1144FBB-AEC5-4551-9239-4C950FA59EA4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="11" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44610</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>100</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="5">
+        <f>SUMIF(OOP_10[Type],"QZ",OOP_10[Weight])</f>
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="5">
+        <f>(SUMIF(OOP_10[Type],"QZ",OOP_10[Percent]))/COUNTIF(OOP_10[Type],"QZ")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44624</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>100</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="5">
+        <f>SUMIF(OOP_10[Type],"EX",OOP_10[Weight])</f>
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="5">
+        <f>(SUMIF(OOP_10[Type],"EX",OOP_10[Percent]))/COUNTIF(OOP_10[Type],"EX")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44638</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>100</v>
+      </c>
+      <c r="G5" s="5">
+        <f>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5">
+        <f>SUM(J3:J4)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <f>(J3*K3)+(J4*K4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44652</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="5">
+        <f>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44687</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <v>100</v>
+      </c>
+      <c r="G7" s="5">
+        <f>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>100</v>
+      </c>
+      <c r="G8" s="5">
+        <f>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5491,8 +5791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC581F71-13EA-4CC9-8894-8953E0805102}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5511,7 +5811,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5699,7 +5999,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6106,7 +6406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694825E1-042E-4FA4-8770-4069ED8A6469}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
@@ -6388,7 +6688,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/CS-Module-Marks-Tracker-blank.xlsx
+++ b/resources/CS-Module-Marks-Tracker-blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\matth\Documents\school\UNI\Birmingham\Comp. Sci\CS Resources\FirstYearCSResources\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60B0E0C-8368-4161-9A75-CDCC73DFF335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5040BF69-CE77-467F-A8E4-84B208AF18E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="7" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="125">
   <si>
     <t>Module</t>
   </si>
@@ -416,6 +416,15 @@
   </si>
   <si>
     <t>Quizzes</t>
+  </si>
+  <si>
+    <t>W5 Assignment</t>
+  </si>
+  <si>
+    <t>W9 Assignment</t>
+  </si>
+  <si>
+    <t>W11 Assignment</t>
   </si>
 </sst>
 </file>
@@ -543,7 +552,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="93">
     <dxf>
       <fill>
         <patternFill>
@@ -620,6 +629,37 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3142,23 +3182,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>191894</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>265386</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>124811</xdr:rowOff>
+      <xdr:colOff>657305</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+        <xdr:cNvPr id="3" name="Rectangle 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1FC84D-0528-460A-B3C4-F083645D25DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA0BBDB-DAD7-4ADA-A0D7-8E7C935390C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,8 +3206,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="1484586" cy="505811"/>
+          <a:off x="1268219" y="1956575"/>
+          <a:ext cx="2017986" cy="505811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3345,34 +3385,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9EA4CCE4-E406-4481-AA90-9A07CAD5BE7E}" name="OOP_10" displayName="OOP_10" ref="A2:G8" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9EA4CCE4-E406-4481-AA90-9A07CAD5BE7E}" name="AI" displayName="AI" ref="A2:G8" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A2:G8" xr:uid="{9EA4CCE4-E406-4481-AA90-9A07CAD5BE7E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{69A62117-FC87-4ECC-AB98-EF35B05A468E}" name="Assessment" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{60753137-725D-4636-8C02-EC3D7FD23525}" name="Type" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{05971888-5882-46B9-8195-7C40FE55BDBF}" name="Date" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{79E72D4D-8ED7-4B0C-8D4A-E1F6B54F9E04}" name="Weight" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{25BA5AEC-6E95-498F-9617-9DADAFA4F49D}" name="Marks" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{8BC298BB-3525-4A67-928C-CDEF4817E4CE}" name="Out Of" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{AD958F54-11F6-4131-85C7-2EB5FF82A984}" name="Percent" dataDxfId="75">
-      <calculatedColumnFormula>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{69A62117-FC87-4ECC-AB98-EF35B05A468E}" name="Assessment" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{60753137-725D-4636-8C02-EC3D7FD23525}" name="Type" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{05971888-5882-46B9-8195-7C40FE55BDBF}" name="Date" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{79E72D4D-8ED7-4B0C-8D4A-E1F6B54F9E04}" name="Weight" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{25BA5AEC-6E95-498F-9617-9DADAFA4F49D}" name="Marks" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{8BC298BB-3525-4A67-928C-CDEF4817E4CE}" name="Out Of" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{AD958F54-11F6-4131-85C7-2EB5FF82A984}" name="Percent" dataDxfId="84">
+      <calculatedColumnFormula>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:F11" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{20D3C205-D24B-481F-A0A5-97A6101B312A}" name="DSA" displayName="DSA" ref="A2:G7" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{20D3C205-D24B-481F-A0A5-97A6101B312A}" name="DSA" displayName="DSA" ref="A2:G7" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A2:G7" xr:uid="{20D3C205-D24B-481F-A0A5-97A6101B312A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2270E0A8-E28C-4AF9-BFC1-A412E0725E4C}" name="Assessment" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{7052E14A-65AF-43E2-8483-D779564FD6C0}" name="Type" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{63A96BCC-5661-4CA8-9927-9E1FA068D3C4}" name="Date" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{1F33FCAA-DEEE-45E2-89E6-03E71911E17F}" name="Weight" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{F1F6B912-427B-4B79-AD72-0E5794AA2EB0}" name="Marks" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{C6CD4014-F914-41A7-9044-7D2D5C20AB20}" name="Out Of" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{21C62A9F-30A4-4FEA-9205-6025E71D32F4}" name="Percent" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{2270E0A8-E28C-4AF9-BFC1-A412E0725E4C}" name="Assessment" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{7052E14A-65AF-43E2-8483-D779564FD6C0}" name="Type" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{63A96BCC-5661-4CA8-9927-9E1FA068D3C4}" name="Date" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{1F33FCAA-DEEE-45E2-89E6-03E71911E17F}" name="Weight" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{F1F6B912-427B-4B79-AD72-0E5794AA2EB0}" name="Marks" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{C6CD4014-F914-41A7-9044-7D2D5C20AB20}" name="Out Of" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{21C62A9F-30A4-4FEA-9205-6025E71D32F4}" name="Percent" dataDxfId="75">
       <calculatedColumnFormula>IFERROR(DSA[[#This Row],[Marks]]/DSA[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3381,17 +3436,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F35ED7B2-2694-475F-9750-DB6006F821CB}" name="OOP_9" displayName="OOP_9" ref="A2:G5" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F35ED7B2-2694-475F-9750-DB6006F821CB}" name="FSAD" displayName="FSAD" ref="A2:G5" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A2:G5" xr:uid="{F35ED7B2-2694-475F-9750-DB6006F821CB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E80B8A59-3B9F-4512-8A91-0C6601A07EE2}" name="Assessment" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{E5D6FFF2-E218-4868-ADD3-69587A76F673}" name="Type" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{59C1D46E-21B1-49C7-8032-C8F8375176BE}" name="Date" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{74073497-F8B4-4CA4-AE6C-18AF43D79BB4}" name="Weight" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{E1196646-88EC-4C14-B54C-30FABBD9067B}" name="Marks" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{F7783659-DAB3-47F3-B843-4B680178AE5A}" name="Out Of" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{63276932-3C7D-439A-979B-4B0ECD257653}" name="Percent" dataDxfId="57">
-      <calculatedColumnFormula>IFERROR(OOP_9[[#This Row],[Marks]]/OOP_9[[#This Row],[Out Of]],0)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{E80B8A59-3B9F-4512-8A91-0C6601A07EE2}" name="Assessment" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{E5D6FFF2-E218-4868-ADD3-69587A76F673}" name="Type" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{59C1D46E-21B1-49C7-8032-C8F8375176BE}" name="Date" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{74073497-F8B4-4CA4-AE6C-18AF43D79BB4}" name="Weight" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{E1196646-88EC-4C14-B54C-30FABBD9067B}" name="Marks" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{F7783659-DAB3-47F3-B843-4B680178AE5A}" name="Out Of" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{63276932-3C7D-439A-979B-4B0ECD257653}" name="Percent" dataDxfId="66">
+      <calculatedColumnFormula>IFERROR(FSAD[[#This Row],[Marks]]/FSAD[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3399,16 +3454,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}" name="MLFCS" displayName="MLFCS" ref="A2:G15" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}" name="MLFCS" displayName="MLFCS" ref="A2:G15" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A2:G15" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{15DC20F1-D841-4813-BF61-022F87C55DD2}" name="Assessment" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{98565EC1-AB66-491E-907F-60B1C3C06AED}" name="Type" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{E226E69F-80DF-46D2-B2DB-919F4093C819}" name="Date" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{14002C37-7FC0-4B1E-9971-2BD856C2B2DB}" name="Weight" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{4896E73E-0ED6-41FF-AEF7-13DD8D5F34A7}" name="Marks" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{1D2BE4DF-6511-493E-AE36-FF8A538CC8FF}" name="Out Of" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{C9A7BCBC-9AE4-4642-AEA7-952B70FD4E74}" name="Percent" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{15DC20F1-D841-4813-BF61-022F87C55DD2}" name="Assessment" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{98565EC1-AB66-491E-907F-60B1C3C06AED}" name="Type" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{E226E69F-80DF-46D2-B2DB-919F4093C819}" name="Date" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{14002C37-7FC0-4B1E-9971-2BD856C2B2DB}" name="Weight" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{4896E73E-0ED6-41FF-AEF7-13DD8D5F34A7}" name="Marks" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{1D2BE4DF-6511-493E-AE36-FF8A538CC8FF}" name="Out Of" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{C9A7BCBC-9AE4-4642-AEA7-952B70FD4E74}" name="Percent" dataDxfId="57">
       <calculatedColumnFormula>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3417,16 +3472,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}" name="OOP" displayName="OOP" ref="A2:G10" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}" name="OOP" displayName="OOP" ref="A2:G10" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A2:G10" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8AF69D61-70B0-4B62-8A94-84FFD4FF1E30}" name="Assessment" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{6115B625-2524-4C13-BFC6-76AD80B08F00}" name="Type" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{8E7F7644-5258-47D7-BE01-F1673A9FC9F3}" name="Date" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{A9B92261-E9DB-46C0-9F8E-65E2E3C608F6}" name="Weight" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{CB9AA16B-15AA-4947-B2F6-F7C81AF67420}" name="Marks" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{9B24B904-A5F0-44D1-ACED-E4E0338FA6DF}" name="Out Of" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{1A8558B6-1346-45CB-8F71-8D91CA9265F5}" name="Percent" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{8AF69D61-70B0-4B62-8A94-84FFD4FF1E30}" name="Assessment" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{6115B625-2524-4C13-BFC6-76AD80B08F00}" name="Type" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{8E7F7644-5258-47D7-BE01-F1673A9FC9F3}" name="Date" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{A9B92261-E9DB-46C0-9F8E-65E2E3C608F6}" name="Weight" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{CB9AA16B-15AA-4947-B2F6-F7C81AF67420}" name="Marks" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{9B24B904-A5F0-44D1-ACED-E4E0338FA6DF}" name="Out Of" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{1A8558B6-1346-45CB-8F71-8D91CA9265F5}" name="Percent" dataDxfId="48">
       <calculatedColumnFormula>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3435,62 +3490,65 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A2:E14" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E14">
-    <sortCondition ref="C2:C14"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}" name="ToC" displayName="ToC" ref="A2:G6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A2:G6" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CDF6555C-D342-4021-B9FF-9231A38DA5EF}" name="Assessment" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{0A6E3F27-5B4C-4548-9B68-5286C8010E56}" name="Type" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{01393EE1-7332-41C1-8B5D-7D977756C9C5}" name="Date" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{B477AAC4-3E42-4DB0-B997-CE169F78BDCF}" name="Weight" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{2A11DED9-A358-45B0-A162-FEBB45D5F100}" name="Marks" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{719E8FEE-C849-4455-8702-29C54083DDEA}" name="Out Of" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{34631738-2C89-4800-B4BE-D5055E258300}" name="Percent" dataDxfId="11">
+      <calculatedColumnFormula>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:E27" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
-    <sortCondition ref="D1:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A2:E14" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E14">
+    <sortCondition ref="C2:C14"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A2:D16" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:E27" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
+    <sortCondition ref="D1:D27"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A2:F11" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A2:D16" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3795,7 +3853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70942EC-847E-4481-B682-80D0CF4856E5}">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3918,7 +3976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FB547B-EB02-4962-87B0-376B1EBB9A6D}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -4060,7 +4118,10 @@
       <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="8">
+        <f>ToC!K5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -5297,7 +5358,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5371,18 +5432,18 @@
         <v>100</v>
       </c>
       <c r="G3" s="5">
-        <f>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>121</v>
       </c>
       <c r="J3" s="5">
-        <f>SUMIF(OOP_10[Type],"QZ",OOP_10[Weight])</f>
+        <f>SUMIF(AI[Type],"QZ",AI[Weight])</f>
         <v>0.2</v>
       </c>
       <c r="K3" s="5">
-        <f>(SUMIF(OOP_10[Type],"QZ",OOP_10[Percent]))/COUNTIF(OOP_10[Type],"QZ")</f>
+        <f>(SUMIF(AI[Type],"QZ",AI[Percent]))/COUNTIF(AI[Type],"QZ")</f>
         <v>0</v>
       </c>
     </row>
@@ -5404,18 +5465,18 @@
         <v>100</v>
       </c>
       <c r="G4" s="5">
-        <f>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" s="5">
-        <f>SUMIF(OOP_10[Type],"EX",OOP_10[Weight])</f>
+        <f>SUMIF(AI[Type],"EX",AI[Weight])</f>
         <v>0.8</v>
       </c>
       <c r="K4" s="5">
-        <f>(SUMIF(OOP_10[Type],"EX",OOP_10[Percent]))/COUNTIF(OOP_10[Type],"EX")</f>
+        <f>(SUMIF(AI[Type],"EX",AI[Percent]))/COUNTIF(AI[Type],"EX")</f>
         <v>0</v>
       </c>
     </row>
@@ -5437,7 +5498,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="5">
-        <f>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
       <c r="I5" t="s">
@@ -5470,7 +5531,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="5">
-        <f>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5492,7 +5553,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="5">
-        <f>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5512,7 +5573,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="5">
-        <f>IFERROR(OOP_10[[#This Row],[Marks]]/OOP_10[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5550,7 +5611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A89331-E514-4DF8-906F-BF617AA0186A}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -5792,7 +5853,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5867,18 +5928,18 @@
         <v>100</v>
       </c>
       <c r="G3" s="5">
-        <f>IFERROR(OOP_9[[#This Row],[Marks]]/OOP_9[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(FSAD[[#This Row],[Marks]]/FSAD[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="7">
-        <f>SUMIF(OOP_9[Type],"AS",OOP_9[Weight])</f>
+        <f>SUMIF(FSAD[Type],"AS",FSAD[Weight])</f>
         <v>1</v>
       </c>
       <c r="K3" s="7">
-        <f>(SUMIF(OOP_9[Type],"AS",OOP_9[Percent]))/COUNTIF(OOP_9[Type],"AS")</f>
+        <f>(SUMIF(FSAD[Type],"AS",FSAD[Percent]))/COUNTIF(FSAD[Type],"AS")</f>
         <v>0</v>
       </c>
     </row>
@@ -5900,7 +5961,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="5">
-        <f>IFERROR(OOP_9[[#This Row],[Marks]]/OOP_9[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(FSAD[[#This Row],[Marks]]/FSAD[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
       <c r="I4" t="s">
@@ -5933,7 +5994,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="5">
-        <f>IFERROR(OOP_9[[#This Row],[Marks]]/OOP_9[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(FSAD[[#This Row],[Marks]]/FSAD[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6407,7 +6468,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:K10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6685,16 +6746,230 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD6DD3F-7EDA-4652-9952-91B166EF6148}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44623</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>100</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5">
+        <f>SUMIF(ToC[Type],"AS",ToC[Weight])</f>
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="5">
+        <f>(SUMIF(ToC[Type],"AS",ToC[Percent]))/COUNTIF(ToC[Type],"AS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44651</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>100</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="5">
+        <f>SUMIF(ToC[Type],"EX",ToC[Weight])</f>
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="5">
+        <f>(SUMIF(ToC[Type],"EX",ToC[Percent]))/COUNTIF(ToC[Type],"EX")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44686</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>100</v>
+      </c>
+      <c r="G5" s="5">
+        <f>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5">
+        <f>SUM(J3:J4)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <f>(J3*K3)+(J4*K4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="5">
+        <f>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/resources/CS-Module-Marks-Tracker-blank.xlsx
+++ b/resources/CS-Module-Marks-Tracker-blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\matth\Documents\school\UNI\Birmingham\Comp. Sci\CS Resources\FirstYearCSResources\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5040BF69-CE77-467F-A8E4-84B208AF18E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB09166-154D-4C06-912F-D7644C238CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
   </bookViews>
@@ -31,6 +31,9 @@
     <sheet name="FYM-Select" sheetId="16" r:id="rId16"/>
     <sheet name="CyberSecMScModules" sheetId="17" r:id="rId17"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId18"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="127">
   <si>
     <t>Module</t>
   </si>
@@ -425,6 +428,12 @@
   </si>
   <si>
     <t>W11 Assignment</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>Year 3</t>
   </si>
 </sst>
 </file>
@@ -506,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,120 +556,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="93">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -698,6 +602,34 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -726,6 +658,34 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -785,6 +745,58 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -3384,6 +3396,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Menu"/>
+      <sheetName val="AI1"/>
+      <sheetName val="DSA"/>
+      <sheetName val="FSAD"/>
+      <sheetName val="MLFCS"/>
+      <sheetName val="OOP"/>
+      <sheetName val="ToC"/>
+      <sheetName val="AI2"/>
+      <sheetName val="FP"/>
+      <sheetName val="SN"/>
+      <sheetName val="SEPP"/>
+      <sheetName val="SPCC"/>
+      <sheetName val="TP"/>
+      <sheetName val="Final"/>
+      <sheetName val="Assessments"/>
+      <sheetName val="FYM-Select"/>
+      <sheetName val="CyberSecMScModules"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9EA4CCE4-E406-4481-AA90-9A07CAD5BE7E}" name="AI" displayName="AI" ref="A2:G8" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A2:G8" xr:uid="{9EA4CCE4-E406-4481-AA90-9A07CAD5BE7E}"/>
@@ -3403,15 +3460,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A2:F11" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3490,16 +3547,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}" name="ToC" displayName="ToC" ref="A2:G6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}" name="ToC" displayName="ToC" ref="A2:G6" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A2:G6" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CDF6555C-D342-4021-B9FF-9231A38DA5EF}" name="Assessment" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{0A6E3F27-5B4C-4548-9B68-5286C8010E56}" name="Type" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{01393EE1-7332-41C1-8B5D-7D977756C9C5}" name="Date" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{B477AAC4-3E42-4DB0-B997-CE169F78BDCF}" name="Weight" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{2A11DED9-A358-45B0-A162-FEBB45D5F100}" name="Marks" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{719E8FEE-C849-4455-8702-29C54083DDEA}" name="Out Of" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{34631738-2C89-4800-B4BE-D5055E258300}" name="Percent" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{CDF6555C-D342-4021-B9FF-9231A38DA5EF}" name="Assessment" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{0A6E3F27-5B4C-4548-9B68-5286C8010E56}" name="Type" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{01393EE1-7332-41C1-8B5D-7D977756C9C5}" name="Date" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{B477AAC4-3E42-4DB0-B997-CE169F78BDCF}" name="Weight" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{2A11DED9-A358-45B0-A162-FEBB45D5F100}" name="Marks" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{719E8FEE-C849-4455-8702-29C54083DDEA}" name="Out Of" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{34631738-2C89-4800-B4BE-D5055E258300}" name="Percent" dataDxfId="39">
       <calculatedColumnFormula>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3508,47 +3565,47 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A2:E14" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E14">
     <sortCondition ref="C2:C14"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:E27" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
     <sortCondition ref="D1:D27"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A2:D16" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3974,7 +4031,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FB547B-EB02-4962-87B0-376B1EBB9A6D}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -3987,9 +4044,10 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -3998,7 +4056,7 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4015,7 +4073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -4033,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -4050,8 +4108,12 @@
         <f>MLFCS!K6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -4068,8 +4130,15 @@
         <f>OOP!K5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="7">
+        <f>SUMIF(Table1[Year],"1",Table1[Total])/COUNTIF(Table1[Year],"1")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -4086,8 +4155,15 @@
         <f>'AI1'!K5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="7">
+        <f>(SUMIFS(Table1[Total], Table1[Semester],"1",Table1[Year],"1"))/(COUNTIFS(Table1[Semester],"1",Table1[Year],"1"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -4104,8 +4180,15 @@
         <f>FSAD!K4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="7">
+        <f>(SUMIFS(Table1[Total], Table1[Semester],"2",Table1[Year],"1"))/(COUNTIFS(Table1[Semester],"2",Table1[Year],"1"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -4122,8 +4205,15 @@
         <f>ToC!K5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="7">
+        <f>SUMIF(Table1[Year],"2",Table1[Total])/COUNTIF(Table1[Year],"2")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -4137,8 +4227,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="7">
+        <f>(SUMIFS(Table1[Total], Table1[Semester],"1",Table1[Year],"2"))/(COUNTIFS(Table1[Semester],"1",Table1[Year],"2"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -4152,8 +4249,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="7">
+        <f>(SUMIFS(Table1[Total],Table1[Semester],"2",Table1[Year],"2"))/(COUNTIFS(Table1[Semester],"2",Table1[Year],"2"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
@@ -4167,8 +4271,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="7">
+        <f>IFERROR((SUMIF(Table1[Year],"3",Table1[Total])/COUNTIF(Table1[Year],"3")),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -4182,8 +4293,12 @@
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -4197,8 +4312,12 @@
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -4214,17 +4333,18 @@
       <c r="E14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E14">
-    <cfRule type="containsBlanks" dxfId="10" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="38" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="greaterThanOrEqual">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5002,18 +5122,18 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>120</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="6" priority="4" operator="notContains" text="120">
+    <cfRule type="notContainsText" dxfId="20" priority="4" operator="notContains" text="120">
       <formula>ISERROR(SEARCH("120",G5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="notEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5330,18 +5450,18 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>180</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/CS-Module-Marks-Tracker-blank.xlsx
+++ b/resources/CS-Module-Marks-Tracker-blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\matth\Documents\school\UNI\Birmingham\Comp. Sci\CS Resources\FirstYearCSResources\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB09166-154D-4C06-912F-D7644C238CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE0706D-2922-4A95-9830-C0889963E492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="7" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <sheet name="FYM-Select" sheetId="16" r:id="rId16"/>
     <sheet name="CyberSecMScModules" sheetId="17" r:id="rId17"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId18"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3396,51 +3393,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="AI1"/>
-      <sheetName val="DSA"/>
-      <sheetName val="FSAD"/>
-      <sheetName val="MLFCS"/>
-      <sheetName val="OOP"/>
-      <sheetName val="ToC"/>
-      <sheetName val="AI2"/>
-      <sheetName val="FP"/>
-      <sheetName val="SN"/>
-      <sheetName val="SEPP"/>
-      <sheetName val="SPCC"/>
-      <sheetName val="TP"/>
-      <sheetName val="Final"/>
-      <sheetName val="Assessments"/>
-      <sheetName val="FYM-Select"/>
-      <sheetName val="CyberSecMScModules"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9EA4CCE4-E406-4481-AA90-9A07CAD5BE7E}" name="AI" displayName="AI" ref="A2:G8" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A2:G8" xr:uid="{9EA4CCE4-E406-4481-AA90-9A07CAD5BE7E}"/>
@@ -5478,7 +5430,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5549,7 +5501,7 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G3" s="5">
         <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
@@ -5582,7 +5534,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5">
         <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
@@ -5615,7 +5567,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G5" s="5">
         <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
@@ -5648,7 +5600,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G6" s="5">
         <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
@@ -5670,7 +5622,7 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G7" s="5">
         <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>

--- a/resources/CS-Module-Marks-Tracker-blank.xlsx
+++ b/resources/CS-Module-Marks-Tracker-blank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\matth\Documents\school\UNI\Birmingham\Comp. Sci\CS Resources\FirstYearCSResources\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE0706D-2922-4A95-9830-C0889963E492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EEAD2B-0226-4A72-9E2B-37498DB80EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
   </bookViews>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G3" s="5">
         <f>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</f>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5">
         <f>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</f>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G5" s="5">
         <f>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</f>

--- a/resources/CS-Module-Marks-Tracker-blank.xlsx
+++ b/resources/CS-Module-Marks-Tracker-blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\matth\Documents\school\UNI\Birmingham\Comp. Sci\CS Resources\FirstYearCSResources\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EEAD2B-0226-4A72-9E2B-37498DB80EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C6458-59FA-449D-8868-82D483F2EE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="7" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="131">
   <si>
     <t>Module</t>
   </si>
@@ -431,13 +431,25 @@
   </si>
   <si>
     <t>Year 3</t>
+  </si>
+  <si>
+    <t>AS7</t>
+  </si>
+  <si>
+    <t>AS6</t>
+  </si>
+  <si>
+    <t>Assignments 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Assignment3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +502,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -508,11 +527,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,10 +576,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="93">
     <dxf>
@@ -2715,6 +2739,70 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371707</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426069</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6906750-61A7-4179-A732-635AF5FDF7D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="1932878"/>
+          <a:ext cx="1550484" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1"/>
+            <a:t>Scores</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2917,6 +3005,70 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>599379</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86BFAC3-BA9B-4948-8309-AC36F10A247A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3531220" y="1217341"/>
+          <a:ext cx="1333500" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1"/>
+            <a:t>Scores</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3246,6 +3398,70 @@
           <a:r>
             <a:rPr lang="en-GB" sz="2800" b="1"/>
             <a:t>Menu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>210553</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411078</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1375921-CAD0-481F-BBF6-7B30F6E54E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3624514" y="1910014"/>
+          <a:ext cx="1694446" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1"/>
+            <a:t>Scores</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5636,7 +5852,9 @@
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>44711</v>
+      </c>
       <c r="D8" s="5">
         <v>0.8</v>
       </c>
@@ -5925,7 +6143,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6132,7 +6350,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6540,7 +6758,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6820,7 +7038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD6DD3F-7EDA-4652-9952-91B166EF6148}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -6833,7 +7051,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
@@ -6883,7 +7101,7 @@
         <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4">
         <v>44623</v>
@@ -6900,14 +7118,14 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="5">
-        <f>SUMIF(ToC[Type],"AS",ToC[Weight])</f>
-        <v>0.2</v>
-      </c>
-      <c r="K3" s="5">
-        <f>(SUMIF(ToC[Type],"AS",ToC[Percent]))/COUNTIF(ToC[Type],"AS")</f>
+        <v>129</v>
+      </c>
+      <c r="J3" s="17">
+        <f>SUMIF(ToC[Type],"AS7",ToC[Weight])</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K3" s="17">
+        <f>(SUMIF(ToC[Type],"AS7",ToC[Percent]))/COUNTIF(ToC[Type],"AS7")</f>
         <v>0</v>
       </c>
     </row>
@@ -6916,7 +7134,7 @@
         <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="C4" s="4">
         <v>44651</v>
@@ -6926,21 +7144,21 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="5">
         <f>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="5">
-        <f>SUMIF(ToC[Type],"EX",ToC[Weight])</f>
-        <v>0.8</v>
-      </c>
-      <c r="K4" s="5">
-        <f>(SUMIF(ToC[Type],"EX",ToC[Percent]))/COUNTIF(ToC[Type],"EX")</f>
+        <v>130</v>
+      </c>
+      <c r="J4" s="17">
+        <f>SUMIF(ToC[Type],"AS6",ToC[Weight])</f>
+        <v>0.06</v>
+      </c>
+      <c r="K4" s="17">
+        <f>(SUMIF(ToC[Type],"AS6",ToC[Percent]))/COUNTIF(ToC[Type],"AS6")</f>
         <v>0</v>
       </c>
     </row>
@@ -6949,7 +7167,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="C5" s="4">
         <v>44686</v>
@@ -6959,21 +7177,21 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5" s="5">
         <f>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5">
-        <f>SUM(J3:J4)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <f>(J3*K3)+(J4*K4)</f>
+        <v>42</v>
+      </c>
+      <c r="J5" s="17">
+        <f>SUMIF(ToC[Type],"EX",ToC[Weight])</f>
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="17">
+        <f>(SUMIF(ToC[Type],"EX",ToC[Percent]))/COUNTIF(ToC[Type],"EX")</f>
         <v>0</v>
       </c>
     </row>
@@ -6984,7 +7202,9 @@
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <v>44707</v>
+      </c>
       <c r="D6" s="5">
         <v>0.8</v>
       </c>
@@ -6994,6 +7214,17 @@
       </c>
       <c r="G6" s="5">
         <f>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="17">
+        <f>SUM(J3:J5)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <f>(J3*K3)+(J4*K4)+(J5*K5)</f>
         <v>0</v>
       </c>
     </row>
@@ -7038,9 +7269,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/resources/CS-Module-Marks-Tracker-blank.xlsx
+++ b/resources/CS-Module-Marks-Tracker-blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\matth\Documents\school\UNI\Birmingham\Comp. Sci\CS Resources\FirstYearCSResources\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C6458-59FA-449D-8868-82D483F2EE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2000F798-68B5-4E3C-8225-D5CD9602C7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="7" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="134">
   <si>
     <t>Module</t>
   </si>
@@ -443,6 +443,15 @@
   </si>
   <si>
     <t>Assignment3</t>
+  </si>
+  <si>
+    <t>AS25</t>
+  </si>
+  <si>
+    <t>AS50</t>
+  </si>
+  <si>
+    <t>Assignments 1 &amp; 3</t>
   </si>
 </sst>
 </file>
@@ -532,7 +541,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,6 +576,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,9 +591,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -586,6 +598,9 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="93">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -895,9 +910,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3628,15 +3640,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A2:F11" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3665,12 +3677,12 @@
   <autoFilter ref="A2:G5" xr:uid="{F35ED7B2-2694-475F-9750-DB6006F821CB}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E80B8A59-3B9F-4512-8A91-0C6601A07EE2}" name="Assessment" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{E5D6FFF2-E218-4868-ADD3-69587A76F673}" name="Type" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{59C1D46E-21B1-49C7-8032-C8F8375176BE}" name="Date" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{74073497-F8B4-4CA4-AE6C-18AF43D79BB4}" name="Weight" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{E1196646-88EC-4C14-B54C-30FABBD9067B}" name="Marks" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{F7783659-DAB3-47F3-B843-4B680178AE5A}" name="Out Of" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{63276932-3C7D-439A-979B-4B0ECD257653}" name="Percent" dataDxfId="66">
+    <tableColumn id="2" xr3:uid="{E5D6FFF2-E218-4868-ADD3-69587A76F673}" name="Type" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{59C1D46E-21B1-49C7-8032-C8F8375176BE}" name="Date" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{74073497-F8B4-4CA4-AE6C-18AF43D79BB4}" name="Weight" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{E1196646-88EC-4C14-B54C-30FABBD9067B}" name="Marks" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{F7783659-DAB3-47F3-B843-4B680178AE5A}" name="Out Of" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{63276932-3C7D-439A-979B-4B0ECD257653}" name="Percent" dataDxfId="67">
       <calculatedColumnFormula>IFERROR(FSAD[[#This Row],[Marks]]/FSAD[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3679,16 +3691,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}" name="MLFCS" displayName="MLFCS" ref="A2:G15" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}" name="MLFCS" displayName="MLFCS" ref="A2:G15" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A2:G15" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{15DC20F1-D841-4813-BF61-022F87C55DD2}" name="Assessment" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{98565EC1-AB66-491E-907F-60B1C3C06AED}" name="Type" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{E226E69F-80DF-46D2-B2DB-919F4093C819}" name="Date" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{14002C37-7FC0-4B1E-9971-2BD856C2B2DB}" name="Weight" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{4896E73E-0ED6-41FF-AEF7-13DD8D5F34A7}" name="Marks" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{1D2BE4DF-6511-493E-AE36-FF8A538CC8FF}" name="Out Of" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{C9A7BCBC-9AE4-4642-AEA7-952B70FD4E74}" name="Percent" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{15DC20F1-D841-4813-BF61-022F87C55DD2}" name="Assessment" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{98565EC1-AB66-491E-907F-60B1C3C06AED}" name="Type" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{E226E69F-80DF-46D2-B2DB-919F4093C819}" name="Date" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{14002C37-7FC0-4B1E-9971-2BD856C2B2DB}" name="Weight" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{4896E73E-0ED6-41FF-AEF7-13DD8D5F34A7}" name="Marks" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{1D2BE4DF-6511-493E-AE36-FF8A538CC8FF}" name="Out Of" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{C9A7BCBC-9AE4-4642-AEA7-952B70FD4E74}" name="Percent" dataDxfId="58">
       <calculatedColumnFormula>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3697,16 +3709,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}" name="OOP" displayName="OOP" ref="A2:G10" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}" name="OOP" displayName="OOP" ref="A2:G10" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A2:G10" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8AF69D61-70B0-4B62-8A94-84FFD4FF1E30}" name="Assessment" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{6115B625-2524-4C13-BFC6-76AD80B08F00}" name="Type" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{8E7F7644-5258-47D7-BE01-F1673A9FC9F3}" name="Date" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{A9B92261-E9DB-46C0-9F8E-65E2E3C608F6}" name="Weight" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{CB9AA16B-15AA-4947-B2F6-F7C81AF67420}" name="Marks" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{9B24B904-A5F0-44D1-ACED-E4E0338FA6DF}" name="Out Of" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{1A8558B6-1346-45CB-8F71-8D91CA9265F5}" name="Percent" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{8AF69D61-70B0-4B62-8A94-84FFD4FF1E30}" name="Assessment" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{6115B625-2524-4C13-BFC6-76AD80B08F00}" name="Type" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{8E7F7644-5258-47D7-BE01-F1673A9FC9F3}" name="Date" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{A9B92261-E9DB-46C0-9F8E-65E2E3C608F6}" name="Weight" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{CB9AA16B-15AA-4947-B2F6-F7C81AF67420}" name="Marks" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{9B24B904-A5F0-44D1-ACED-E4E0338FA6DF}" name="Out Of" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{1A8558B6-1346-45CB-8F71-8D91CA9265F5}" name="Percent" dataDxfId="49">
       <calculatedColumnFormula>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3715,16 +3727,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}" name="ToC" displayName="ToC" ref="A2:G6" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}" name="ToC" displayName="ToC" ref="A2:G6" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A2:G6" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CDF6555C-D342-4021-B9FF-9231A38DA5EF}" name="Assessment" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{0A6E3F27-5B4C-4548-9B68-5286C8010E56}" name="Type" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{01393EE1-7332-41C1-8B5D-7D977756C9C5}" name="Date" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{B477AAC4-3E42-4DB0-B997-CE169F78BDCF}" name="Weight" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{2A11DED9-A358-45B0-A162-FEBB45D5F100}" name="Marks" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{719E8FEE-C849-4455-8702-29C54083DDEA}" name="Out Of" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{34631738-2C89-4800-B4BE-D5055E258300}" name="Percent" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{CDF6555C-D342-4021-B9FF-9231A38DA5EF}" name="Assessment" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{0A6E3F27-5B4C-4548-9B68-5286C8010E56}" name="Type" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{01393EE1-7332-41C1-8B5D-7D977756C9C5}" name="Date" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{B477AAC4-3E42-4DB0-B997-CE169F78BDCF}" name="Weight" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{2A11DED9-A358-45B0-A162-FEBB45D5F100}" name="Marks" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{719E8FEE-C849-4455-8702-29C54083DDEA}" name="Out Of" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{34631738-2C89-4800-B4BE-D5055E258300}" name="Percent" dataDxfId="40">
       <calculatedColumnFormula>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3733,47 +3745,47 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A2:E14" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E14">
     <sortCondition ref="C2:C14"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:E27" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
     <sortCondition ref="D1:D27"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A2:D16" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4088,43 +4100,43 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="17"/>
+      <c r="H3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="11"/>
     </row>
     <row r="19" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="11"/>
     </row>
   </sheetData>
@@ -4216,13 +4228,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4276,10 +4288,10 @@
         <f>MLFCS!K6</f>
         <v>0</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -4506,13 +4518,13 @@
     <mergeCell ref="G4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E14">
-    <cfRule type="containsBlanks" dxfId="38" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="39" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="greaterThanOrEqual">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5040,12 +5052,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -5060,10 +5072,10 @@
       <c r="D2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5290,18 +5302,18 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" stopIfTrue="1" operator="equal">
       <formula>120</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="20" priority="4" operator="notContains" text="120">
+    <cfRule type="notContainsText" dxfId="21" priority="4" operator="notContains" text="120">
       <formula>ISERROR(SEARCH("120",G5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="notEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5331,14 +5343,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -5359,10 +5371,10 @@
       <c r="F2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5618,18 +5630,18 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>180</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5663,15 +5675,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5917,15 +5929,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6155,21 +6167,21 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6204,8 +6216,8 @@
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
+      <c r="B3" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="C3" s="4">
         <v>44634</v>
@@ -6222,14 +6234,14 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J3" s="7">
-        <f>SUMIF(FSAD[Type],"AS",FSAD[Weight])</f>
-        <v>1</v>
+        <f>SUMIF(FSAD[Type],"AS50",FSAD[Weight])</f>
+        <v>0.5</v>
       </c>
       <c r="K3" s="7">
-        <f>(SUMIF(FSAD[Type],"AS",FSAD[Percent]))/COUNTIF(FSAD[Type],"AS")</f>
+        <f>(SUMIF(FSAD[Type],"AS50",FSAD[Percent]))/COUNTIF(FSAD[Type],"AS50")</f>
         <v>0</v>
       </c>
     </row>
@@ -6237,8 +6249,8 @@
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
+      <c r="B4" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="C4" s="4">
         <v>44684</v>
@@ -6255,14 +6267,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="J4" s="7">
-        <f>SUM(J3:J3)</f>
-        <v>1</v>
+        <f>SUMIF(FSAD[Type],"AS25",FSAD[Weight])</f>
+        <v>0.5</v>
       </c>
       <c r="K4" s="7">
-        <f>(J3*K3)</f>
+        <f>(SUMIF(FSAD[Type],"AS25",FSAD[Percent]))/COUNTIF(FSAD[Type],"AS25")</f>
         <v>0</v>
       </c>
     </row>
@@ -6270,8 +6282,8 @@
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
+      <c r="B5" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="C5" s="4">
         <v>44697</v>
@@ -6285,6 +6297,17 @@
       </c>
       <c r="G5" s="5">
         <f>IFERROR(FSAD[[#This Row],[Marks]]/FSAD[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="7">
+        <f>SUM(J3:J4)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <f>(J4*K4)+(J3*K3)</f>
         <v>0</v>
       </c>
     </row>
@@ -6368,15 +6391,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6774,15 +6797,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7057,15 +7080,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7120,11 +7143,11 @@
       <c r="I3" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <f>SUMIF(ToC[Type],"AS7",ToC[Weight])</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="15">
         <f>(SUMIF(ToC[Type],"AS7",ToC[Percent]))/COUNTIF(ToC[Type],"AS7")</f>
         <v>0</v>
       </c>
@@ -7153,11 +7176,11 @@
       <c r="I4" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="15">
         <f>SUMIF(ToC[Type],"AS6",ToC[Weight])</f>
         <v>0.06</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="15">
         <f>(SUMIF(ToC[Type],"AS6",ToC[Percent]))/COUNTIF(ToC[Type],"AS6")</f>
         <v>0</v>
       </c>
@@ -7186,11 +7209,11 @@
       <c r="I5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <f>SUMIF(ToC[Type],"EX",ToC[Weight])</f>
         <v>0.8</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <f>(SUMIF(ToC[Type],"EX",ToC[Percent]))/COUNTIF(ToC[Type],"EX")</f>
         <v>0</v>
       </c>
@@ -7219,11 +7242,11 @@
       <c r="I6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <f>SUM(J3:J5)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="15">
         <f>(J3*K3)+(J4*K4)+(J5*K5)</f>
         <v>0</v>
       </c>

--- a/resources/CS-Module-Marks-Tracker-blank.xlsx
+++ b/resources/CS-Module-Marks-Tracker-blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\matth\Documents\school\UNI\Birmingham\Comp. Sci\CS Resources\FirstYearCSResources\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2000F798-68B5-4E3C-8225-D5CD9602C7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D651E7-C077-46C7-AD72-A8B511846442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="7" r:id="rId1"/>
@@ -620,9 +620,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -910,6 +907,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3640,15 +3640,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A2:F11" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3677,12 +3677,12 @@
   <autoFilter ref="A2:G5" xr:uid="{F35ED7B2-2694-475F-9750-DB6006F821CB}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E80B8A59-3B9F-4512-8A91-0C6601A07EE2}" name="Assessment" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{E5D6FFF2-E218-4868-ADD3-69587A76F673}" name="Type" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{59C1D46E-21B1-49C7-8032-C8F8375176BE}" name="Date" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{74073497-F8B4-4CA4-AE6C-18AF43D79BB4}" name="Weight" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{E1196646-88EC-4C14-B54C-30FABBD9067B}" name="Marks" dataDxfId="69"/>
-    <tableColumn id="6" xr3:uid="{F7783659-DAB3-47F3-B843-4B680178AE5A}" name="Out Of" dataDxfId="68"/>
-    <tableColumn id="7" xr3:uid="{63276932-3C7D-439A-979B-4B0ECD257653}" name="Percent" dataDxfId="67">
+    <tableColumn id="2" xr3:uid="{E5D6FFF2-E218-4868-ADD3-69587A76F673}" name="Type" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{59C1D46E-21B1-49C7-8032-C8F8375176BE}" name="Date" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{74073497-F8B4-4CA4-AE6C-18AF43D79BB4}" name="Weight" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{E1196646-88EC-4C14-B54C-30FABBD9067B}" name="Marks" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{F7783659-DAB3-47F3-B843-4B680178AE5A}" name="Out Of" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{63276932-3C7D-439A-979B-4B0ECD257653}" name="Percent" dataDxfId="66">
       <calculatedColumnFormula>IFERROR(FSAD[[#This Row],[Marks]]/FSAD[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3691,16 +3691,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}" name="MLFCS" displayName="MLFCS" ref="A2:G15" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}" name="MLFCS" displayName="MLFCS" ref="A2:G15" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A2:G15" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{15DC20F1-D841-4813-BF61-022F87C55DD2}" name="Assessment" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{98565EC1-AB66-491E-907F-60B1C3C06AED}" name="Type" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{E226E69F-80DF-46D2-B2DB-919F4093C819}" name="Date" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{14002C37-7FC0-4B1E-9971-2BD856C2B2DB}" name="Weight" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{4896E73E-0ED6-41FF-AEF7-13DD8D5F34A7}" name="Marks" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{1D2BE4DF-6511-493E-AE36-FF8A538CC8FF}" name="Out Of" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{C9A7BCBC-9AE4-4642-AEA7-952B70FD4E74}" name="Percent" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{15DC20F1-D841-4813-BF61-022F87C55DD2}" name="Assessment" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{98565EC1-AB66-491E-907F-60B1C3C06AED}" name="Type" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{E226E69F-80DF-46D2-B2DB-919F4093C819}" name="Date" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{14002C37-7FC0-4B1E-9971-2BD856C2B2DB}" name="Weight" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{4896E73E-0ED6-41FF-AEF7-13DD8D5F34A7}" name="Marks" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{1D2BE4DF-6511-493E-AE36-FF8A538CC8FF}" name="Out Of" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{C9A7BCBC-9AE4-4642-AEA7-952B70FD4E74}" name="Percent" dataDxfId="57">
       <calculatedColumnFormula>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3709,16 +3709,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}" name="OOP" displayName="OOP" ref="A2:G10" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}" name="OOP" displayName="OOP" ref="A2:G10" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A2:G10" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8AF69D61-70B0-4B62-8A94-84FFD4FF1E30}" name="Assessment" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{6115B625-2524-4C13-BFC6-76AD80B08F00}" name="Type" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{8E7F7644-5258-47D7-BE01-F1673A9FC9F3}" name="Date" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{A9B92261-E9DB-46C0-9F8E-65E2E3C608F6}" name="Weight" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{CB9AA16B-15AA-4947-B2F6-F7C81AF67420}" name="Marks" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{9B24B904-A5F0-44D1-ACED-E4E0338FA6DF}" name="Out Of" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{1A8558B6-1346-45CB-8F71-8D91CA9265F5}" name="Percent" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{8AF69D61-70B0-4B62-8A94-84FFD4FF1E30}" name="Assessment" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{6115B625-2524-4C13-BFC6-76AD80B08F00}" name="Type" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{8E7F7644-5258-47D7-BE01-F1673A9FC9F3}" name="Date" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{A9B92261-E9DB-46C0-9F8E-65E2E3C608F6}" name="Weight" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{CB9AA16B-15AA-4947-B2F6-F7C81AF67420}" name="Marks" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{9B24B904-A5F0-44D1-ACED-E4E0338FA6DF}" name="Out Of" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{1A8558B6-1346-45CB-8F71-8D91CA9265F5}" name="Percent" dataDxfId="48">
       <calculatedColumnFormula>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3727,16 +3727,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}" name="ToC" displayName="ToC" ref="A2:G6" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}" name="ToC" displayName="ToC" ref="A2:G6" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A2:G6" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CDF6555C-D342-4021-B9FF-9231A38DA5EF}" name="Assessment" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{0A6E3F27-5B4C-4548-9B68-5286C8010E56}" name="Type" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{01393EE1-7332-41C1-8B5D-7D977756C9C5}" name="Date" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{B477AAC4-3E42-4DB0-B997-CE169F78BDCF}" name="Weight" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{2A11DED9-A358-45B0-A162-FEBB45D5F100}" name="Marks" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{719E8FEE-C849-4455-8702-29C54083DDEA}" name="Out Of" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{34631738-2C89-4800-B4BE-D5055E258300}" name="Percent" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{CDF6555C-D342-4021-B9FF-9231A38DA5EF}" name="Assessment" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{0A6E3F27-5B4C-4548-9B68-5286C8010E56}" name="Type" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{01393EE1-7332-41C1-8B5D-7D977756C9C5}" name="Date" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{B477AAC4-3E42-4DB0-B997-CE169F78BDCF}" name="Weight" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{2A11DED9-A358-45B0-A162-FEBB45D5F100}" name="Marks" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{719E8FEE-C849-4455-8702-29C54083DDEA}" name="Out Of" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{34631738-2C89-4800-B4BE-D5055E258300}" name="Percent" dataDxfId="39">
       <calculatedColumnFormula>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3745,47 +3745,47 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A2:E14" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E14">
     <sortCondition ref="C2:C14"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:E27" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
     <sortCondition ref="D1:D27"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A2:D16" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4518,13 +4518,13 @@
     <mergeCell ref="G4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E14">
-    <cfRule type="containsBlanks" dxfId="39" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="38" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="greaterThanOrEqual">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5302,18 +5302,18 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="22" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>120</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="21" priority="4" operator="notContains" text="120">
+    <cfRule type="notContainsText" dxfId="20" priority="4" operator="notContains" text="120">
       <formula>ISERROR(SEARCH("120",G5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="notEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5630,18 +5630,18 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>180</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G8" s="5">
         <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
@@ -7062,7 +7062,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G6" s="5">
         <f>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</f>

--- a/resources/CS-Module-Marks-Tracker-blank.xlsx
+++ b/resources/CS-Module-Marks-Tracker-blank.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\matth\Documents\school\UNI\Birmingham\Comp. Sci\CS Resources\FirstYearCSResources\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siva\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D651E7-C077-46C7-AD72-A8B511846442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B274C-BA81-47E2-A571-43AEF66D17E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="13" xr2:uid="{B7EF9BA6-F1C8-4970-808A-2941F4194624}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="7" r:id="rId1"/>
-    <sheet name="AI1" sheetId="1" r:id="rId2"/>
+    <sheet name="OOP" sheetId="5" r:id="rId2"/>
     <sheet name="DSA" sheetId="2" r:id="rId3"/>
-    <sheet name="FSAD" sheetId="3" r:id="rId4"/>
-    <sheet name="MLFCS" sheetId="4" r:id="rId5"/>
-    <sheet name="OOP" sheetId="5" r:id="rId6"/>
+    <sheet name="MLFCS" sheetId="4" r:id="rId4"/>
+    <sheet name="AI1" sheetId="1" r:id="rId5"/>
+    <sheet name="FSAD" sheetId="3" r:id="rId6"/>
     <sheet name="ToC" sheetId="6" r:id="rId7"/>
-    <sheet name="AI2" sheetId="9" r:id="rId8"/>
-    <sheet name="FP" sheetId="10" r:id="rId9"/>
-    <sheet name="SN" sheetId="11" r:id="rId10"/>
-    <sheet name="SEPP" sheetId="12" r:id="rId11"/>
-    <sheet name="SPCC" sheetId="13" r:id="rId12"/>
+    <sheet name="FP" sheetId="18" r:id="rId8"/>
+    <sheet name="OSSP" sheetId="19" r:id="rId9"/>
+    <sheet name="SEPP" sheetId="20" r:id="rId10"/>
+    <sheet name="AI2" sheetId="9" r:id="rId11"/>
+    <sheet name="SN" sheetId="11" r:id="rId12"/>
     <sheet name="TP" sheetId="14" r:id="rId13"/>
     <sheet name="Final" sheetId="8" r:id="rId14"/>
     <sheet name="Assessments" sheetId="15" r:id="rId15"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="139">
   <si>
     <t>Module</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Software Engineering and Professional Practice</t>
   </si>
   <si>
-    <t>Systems Programming in C/C++</t>
-  </si>
-  <si>
     <t>Team Project</t>
   </si>
   <si>
@@ -196,262 +193,280 @@
     <t>Week 5 Class Test</t>
   </si>
   <si>
+    <t>Graded Quiz 1</t>
+  </si>
+  <si>
+    <t>Graded Quiz 2</t>
+  </si>
+  <si>
+    <t>Graded Quiz 3</t>
+  </si>
+  <si>
+    <t>Graded Quiz 4</t>
+  </si>
+  <si>
+    <t>Graded Quiz 5</t>
+  </si>
+  <si>
+    <t>Graded Quiz 6</t>
+  </si>
+  <si>
+    <t>Graded Quiz 7</t>
+  </si>
+  <si>
+    <t>Graded Quiz 8</t>
+  </si>
+  <si>
+    <t>Graded Quiz 9</t>
+  </si>
+  <si>
+    <t>Graded Quiz 10</t>
+  </si>
+  <si>
+    <t>Quizs</t>
+  </si>
+  <si>
+    <t>Class Tests</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Test - W11</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>January Exam</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>OOP</t>
+  </si>
+  <si>
+    <t>Online Test 1</t>
+  </si>
+  <si>
+    <t>Online Test 2</t>
+  </si>
+  <si>
+    <t>Online Test 3</t>
+  </si>
+  <si>
+    <t>Online Test 4</t>
+  </si>
+  <si>
+    <t>Online Test 5</t>
+  </si>
+  <si>
+    <t>Online Test 6</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MLFCS</t>
+  </si>
+  <si>
+    <t>Class Test 1</t>
+  </si>
+  <si>
+    <t>Class Test 2</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Semester 1</t>
+  </si>
+  <si>
+    <t>Semester 2</t>
+  </si>
+  <si>
+    <t>Final Year Modules</t>
+  </si>
+  <si>
+    <t>Final Year</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Select?</t>
+  </si>
+  <si>
+    <t>Advanced Functional Programming</t>
+  </si>
+  <si>
+    <t>Advanced Networking</t>
+  </si>
+  <si>
+    <t>Algorithms and Complexity</t>
+  </si>
+  <si>
+    <t>Computer Vision and Imaging</t>
+  </si>
+  <si>
+    <t>Evolutionary Computation</t>
+  </si>
+  <si>
+    <t>Human-Computer Interaction</t>
+  </si>
+  <si>
+    <t>Intelligent Robotics</t>
+  </si>
+  <si>
+    <t>Machine Learning and Intelligent Data Analysis</t>
+  </si>
+  <si>
+    <t>Mobile &amp; Ubiquitous Computing</t>
+  </si>
+  <si>
+    <t>Neural Computation</t>
+  </si>
+  <si>
+    <t>Programming Language Principles, Design, and Implementation</t>
+  </si>
+  <si>
+    <t>Security of Real-World Systems</t>
+  </si>
+  <si>
+    <t>Teaching Computer Science in Schools</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Computer Science Project (Compulsory)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Graded Quiz 11</t>
+  </si>
+  <si>
+    <t>Designing and Managing Secure Systems</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Forensics, Malware, and Penetration Testing</t>
+  </si>
+  <si>
+    <t>Network Security and Cryptography</t>
+  </si>
+  <si>
+    <t>Project - CompSci MSc</t>
+  </si>
+  <si>
+    <t>Secure Software and Hardware Systems</t>
+  </si>
+  <si>
+    <t>Compulsory</t>
+  </si>
+  <si>
+    <t>Algorithms and Complexity (Extended)</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Machine Learning and Intelligent Data Analysis (Extended)</t>
+  </si>
+  <si>
+    <t>Mobile &amp; Ubiquitous Computing (Extended)</t>
+  </si>
+  <si>
+    <t>Programming Language Principles, Design, and Implementation (Extended)</t>
+  </si>
+  <si>
+    <t>Maths &amp; Logic in Comp. Sci.</t>
+  </si>
+  <si>
+    <t>Assignment 1</t>
+  </si>
+  <si>
+    <t>Quiz 5</t>
+  </si>
+  <si>
+    <t>Quizzes</t>
+  </si>
+  <si>
+    <t>W5 Assignment</t>
+  </si>
+  <si>
+    <t>W9 Assignment</t>
+  </si>
+  <si>
+    <t>W11 Assignment</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>AS7</t>
+  </si>
+  <si>
+    <t>AS6</t>
+  </si>
+  <si>
+    <t>Assignments 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Assignment3</t>
+  </si>
+  <si>
+    <t>AS25</t>
+  </si>
+  <si>
+    <t>AS50</t>
+  </si>
+  <si>
+    <t>Assignments 1 &amp; 3</t>
+  </si>
+  <si>
+    <t>Coursework</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>Group Project</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Operating Systems &amp; Systems Programming</t>
+  </si>
+  <si>
     <t>Week 9 Class Test</t>
-  </si>
-  <si>
-    <t>Graded Quiz 1</t>
-  </si>
-  <si>
-    <t>Graded Quiz 2</t>
-  </si>
-  <si>
-    <t>Graded Quiz 3</t>
-  </si>
-  <si>
-    <t>Graded Quiz 4</t>
-  </si>
-  <si>
-    <t>Graded Quiz 5</t>
-  </si>
-  <si>
-    <t>Graded Quiz 6</t>
-  </si>
-  <si>
-    <t>Graded Quiz 7</t>
-  </si>
-  <si>
-    <t>Graded Quiz 8</t>
-  </si>
-  <si>
-    <t>Graded Quiz 9</t>
-  </si>
-  <si>
-    <t>Graded Quiz 10</t>
-  </si>
-  <si>
-    <t>Quizs</t>
-  </si>
-  <si>
-    <t>Class Tests</t>
-  </si>
-  <si>
-    <t>Year 1</t>
-  </si>
-  <si>
-    <t>Year 2</t>
-  </si>
-  <si>
-    <t>Test - W11</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>Due</t>
-  </si>
-  <si>
-    <t>January Exam</t>
-  </si>
-  <si>
-    <t>DSA</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>OOP</t>
-  </si>
-  <si>
-    <t>Online Test 1</t>
-  </si>
-  <si>
-    <t>Online Test 2</t>
-  </si>
-  <si>
-    <t>Online Test 3</t>
-  </si>
-  <si>
-    <t>Online Test 4</t>
-  </si>
-  <si>
-    <t>Online Test 5</t>
-  </si>
-  <si>
-    <t>Online Test 6</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MLFCS</t>
-  </si>
-  <si>
-    <t>Class Test 1</t>
-  </si>
-  <si>
-    <t>Class Test 2</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Semester 1</t>
-  </si>
-  <si>
-    <t>Semester 2</t>
-  </si>
-  <si>
-    <t>Final Year Modules</t>
-  </si>
-  <si>
-    <t>Final Year</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Select?</t>
-  </si>
-  <si>
-    <t>Advanced Functional Programming</t>
-  </si>
-  <si>
-    <t>Advanced Networking</t>
-  </si>
-  <si>
-    <t>Algorithms and Complexity</t>
-  </si>
-  <si>
-    <t>Computer Vision and Imaging</t>
-  </si>
-  <si>
-    <t>Evolutionary Computation</t>
-  </si>
-  <si>
-    <t>Human-Computer Interaction</t>
-  </si>
-  <si>
-    <t>Intelligent Robotics</t>
-  </si>
-  <si>
-    <t>Machine Learning and Intelligent Data Analysis</t>
-  </si>
-  <si>
-    <t>Mobile &amp; Ubiquitous Computing</t>
-  </si>
-  <si>
-    <t>Neural Computation</t>
-  </si>
-  <si>
-    <t>Programming Language Principles, Design, and Implementation</t>
-  </si>
-  <si>
-    <t>Security of Real-World Systems</t>
-  </si>
-  <si>
-    <t>Teaching Computer Science in Schools</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Computer Science Project (Compulsory)</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Graded Quiz 11</t>
-  </si>
-  <si>
-    <t>Designing and Managing Secure Systems</t>
-  </si>
-  <si>
-    <t>Autumn</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Forensics, Malware, and Penetration Testing</t>
-  </si>
-  <si>
-    <t>Network Security and Cryptography</t>
-  </si>
-  <si>
-    <t>Project - CompSci MSc</t>
-  </si>
-  <si>
-    <t>Secure Software and Hardware Systems</t>
-  </si>
-  <si>
-    <t>Compulsory</t>
-  </si>
-  <si>
-    <t>Algorithms and Complexity (Extended)</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Machine Learning and Intelligent Data Analysis (Extended)</t>
-  </si>
-  <si>
-    <t>Mobile &amp; Ubiquitous Computing (Extended)</t>
-  </si>
-  <si>
-    <t>Programming Language Principles, Design, and Implementation (Extended)</t>
-  </si>
-  <si>
-    <t>Maths &amp; Logic in Comp. Sci.</t>
-  </si>
-  <si>
-    <t>Assignment 1</t>
-  </si>
-  <si>
-    <t>Quiz 5</t>
-  </si>
-  <si>
-    <t>Quizzes</t>
-  </si>
-  <si>
-    <t>W5 Assignment</t>
-  </si>
-  <si>
-    <t>W9 Assignment</t>
-  </si>
-  <si>
-    <t>W11 Assignment</t>
-  </si>
-  <si>
-    <t>Averages</t>
-  </si>
-  <si>
-    <t>Year 3</t>
-  </si>
-  <si>
-    <t>AS7</t>
-  </si>
-  <si>
-    <t>AS6</t>
-  </si>
-  <si>
-    <t>Assignments 1 &amp; 2</t>
-  </si>
-  <si>
-    <t>Assignment3</t>
-  </si>
-  <si>
-    <t>AS25</t>
-  </si>
-  <si>
-    <t>AS50</t>
-  </si>
-  <si>
-    <t>Assignments 1 &amp; 3</t>
   </si>
 </sst>
 </file>
@@ -541,7 +556,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -582,6 +597,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,7 +618,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="120">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -799,6 +820,99 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1633,8 +1747,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>SPCC</a:t>
+            <a:t>OSSP</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2344,16 +2469,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>191894</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>417786</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>986</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657305</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2361,7 +2486,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D3529F-CBEF-46F7-B681-5F5C33C91D6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC171CA-A6A2-434C-91DC-69E49C80BA39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,8 +2494,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590800" y="4638675"/>
-          <a:ext cx="1484586" cy="505811"/>
+          <a:off x="1344419" y="1956575"/>
+          <a:ext cx="1913211" cy="505811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2406,6 +2531,70 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>210553</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411078</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D44D568-D47D-458D-9EF2-D1FF7675EB28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3620503" y="1911017"/>
+          <a:ext cx="1695950" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1"/>
+            <a:t>Scores</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2413,16 +2602,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>265386</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>124811</xdr:rowOff>
+      <xdr:colOff>170136</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2430,7 +2619,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B9BB9A-9462-45C3-AB36-CF961142B1A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739044A8-37E0-49F0-8BC5-EB55C69457D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="1905000"/>
+          <a:off x="2343150" y="3895725"/>
           <a:ext cx="1484586" cy="505811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2483,23 +2672,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>265386</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>124811</xdr:rowOff>
+      <xdr:colOff>417786</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>986</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
+        <xdr:cNvPr id="2" name="Rectangle 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2141FC-7173-481B-935B-6E7A786FBE81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D3529F-CBEF-46F7-B681-5F5C33C91D6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2696,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="2667000"/>
+          <a:off x="2590800" y="4638675"/>
           <a:ext cx="1484586" cy="505811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2690,15 +2879,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>191894</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>165875</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>657305</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>100186</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>829743</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124811</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2706,7 +2895,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F1B319-0FAB-4A2D-AF86-0CAB7B526EFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC81392-B146-47E2-BD72-E5FC09F550BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2714,8 +2903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1269845" y="1954716"/>
-          <a:ext cx="2017289" cy="505811"/>
+          <a:off x="1077516" y="2363391"/>
+          <a:ext cx="1484586" cy="505811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2753,16 +2942,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371707</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>144037</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>426069</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>153562</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>261815</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128383</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2770,7 +2959,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6906750-61A7-4179-A732-635AF5FDF7D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4685A9-EFAB-414B-A52A-1D6A61061881}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,8 +2967,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3810000" y="1932878"/>
-          <a:ext cx="1550484" cy="581025"/>
+          <a:off x="2974182" y="2366963"/>
+          <a:ext cx="1484586" cy="505811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2956,139 +3145,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>20411</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>42182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285797</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>166993</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5665AEB-CC56-4D03-A9C2-A984FF5C31B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1098097" y="1261382"/>
-          <a:ext cx="1669643" cy="505811"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="2800" b="1"/>
-            <a:t>Menu</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>599379</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86BFAC3-BA9B-4948-8309-AC36F10A247A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3531220" y="1217341"/>
-          <a:ext cx="1333500" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="2800" b="1"/>
-            <a:t>Scores</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>41672</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>53578</xdr:rowOff>
@@ -3217,20 +3273,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>191894</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>829743</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>124811</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657305</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3238,7 +3294,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC81392-B146-47E2-BD72-E5FC09F550BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F1B319-0FAB-4A2D-AF86-0CAB7B526EFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3246,8 +3302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1077516" y="2363391"/>
-          <a:ext cx="1484586" cy="505811"/>
+          <a:off x="1269845" y="1954716"/>
+          <a:ext cx="2017289" cy="505811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3285,16 +3341,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>319088</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>3572</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371707</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>261815</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>128383</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426069</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3302,7 +3358,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4685A9-EFAB-414B-A52A-1D6A61061881}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6906750-61A7-4179-A732-635AF5FDF7D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,8 +3366,141 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2974182" y="2366963"/>
-          <a:ext cx="1484586" cy="505811"/>
+          <a:off x="3810000" y="1932878"/>
+          <a:ext cx="1550484" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1"/>
+            <a:t>Scores</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20411</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285797</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166993</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5665AEB-CC56-4D03-A9C2-A984FF5C31B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1098097" y="1261382"/>
+          <a:ext cx="1669643" cy="505811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1"/>
+            <a:t>Menu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>599379</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86BFAC3-BA9B-4948-8309-AC36F10A247A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3531220" y="1217341"/>
+          <a:ext cx="1333500" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3487,24 +3676,24 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>191894</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>170136</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>20036</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657305</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
+        <xdr:cNvPr id="2" name="Rectangle 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739044A8-37E0-49F0-8BC5-EB55C69457D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDBA5DAC-D690-4B5A-B3CE-4BEC2CF89942}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,8 +3701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343150" y="3895725"/>
-          <a:ext cx="1484586" cy="505811"/>
+          <a:off x="1344419" y="1956575"/>
+          <a:ext cx="1913211" cy="505811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3549,6 +3738,70 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>210553</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411078</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93DD7ED-AC72-43AD-A8AC-2FA0E81CF1B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3620503" y="1911017"/>
+          <a:ext cx="1695950" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1"/>
+            <a:t>Scores</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3556,24 +3809,24 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>191894</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>265386</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>124811</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657305</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
+        <xdr:cNvPr id="2" name="Rectangle 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC30780-FDFF-4EB3-97E2-F5E385C9E5CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7C525F-4C4C-4D03-8C6A-94DCEAEB5B54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,8 +3834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="1143000"/>
-          <a:ext cx="1484586" cy="505811"/>
+          <a:off x="1344419" y="1956575"/>
+          <a:ext cx="1913211" cy="505811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3618,10 +3871,190 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>210553</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411078</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6ADC55-A9D6-49C1-8926-294478937296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3620503" y="1911017"/>
+          <a:ext cx="1695950" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" b="1"/>
+            <a:t>Scores</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}" name="OOP" displayName="OOP" ref="A2:G10" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+  <autoFilter ref="A2:G10" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{8AF69D61-70B0-4B62-8A94-84FFD4FF1E30}" name="Assessment" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{6115B625-2524-4C13-BFC6-76AD80B08F00}" name="Type" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{8E7F7644-5258-47D7-BE01-F1673A9FC9F3}" name="Date" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{A9B92261-E9DB-46C0-9F8E-65E2E3C608F6}" name="Weight" dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{CB9AA16B-15AA-4947-B2F6-F7C81AF67420}" name="Marks" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{9B24B904-A5F0-44D1-ACED-E4E0338FA6DF}" name="Out Of" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{1A8558B6-1346-45CB-8F71-8D91CA9265F5}" name="Percent" dataDxfId="111">
+      <calculatedColumnFormula>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A2:E14" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E14">
+    <sortCondition ref="C2:C14"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:E27" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
+    <sortCondition ref="D1:D27"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A2:D16" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F11" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{20D3C205-D24B-481F-A0A5-97A6101B312A}" name="DSA" displayName="DSA" ref="A2:G7" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+  <autoFilter ref="A2:G7" xr:uid="{20D3C205-D24B-481F-A0A5-97A6101B312A}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2270E0A8-E28C-4AF9-BFC1-A412E0725E4C}" name="Assessment" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{7052E14A-65AF-43E2-8483-D779564FD6C0}" name="Type" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{63A96BCC-5661-4CA8-9927-9E1FA068D3C4}" name="Date" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{1F33FCAA-DEEE-45E2-89E6-03E71911E17F}" name="Weight" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{F1F6B912-427B-4B79-AD72-0E5794AA2EB0}" name="Marks" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{C6CD4014-F914-41A7-9044-7D2D5C20AB20}" name="Out Of" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{21C62A9F-30A4-4FEA-9205-6025E71D32F4}" name="Percent" dataDxfId="102">
+      <calculatedColumnFormula>IFERROR(DSA[[#This Row],[Marks]]/DSA[[#This Row],[Out Of]],0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}" name="MLFCS" displayName="MLFCS" ref="A2:G15" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+  <autoFilter ref="A2:G15" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{15DC20F1-D841-4813-BF61-022F87C55DD2}" name="Assessment" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{98565EC1-AB66-491E-907F-60B1C3C06AED}" name="Type" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{E226E69F-80DF-46D2-B2DB-919F4093C819}" name="Date" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{14002C37-7FC0-4B1E-9971-2BD856C2B2DB}" name="Weight" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{4896E73E-0ED6-41FF-AEF7-13DD8D5F34A7}" name="Marks" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{1D2BE4DF-6511-493E-AE36-FF8A538CC8FF}" name="Out Of" dataDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{C9A7BCBC-9AE4-4642-AEA7-952B70FD4E74}" name="Percent" dataDxfId="93">
+      <calculatedColumnFormula>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9EA4CCE4-E406-4481-AA90-9A07CAD5BE7E}" name="AI" displayName="AI" ref="A2:G8" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A2:G8" xr:uid="{9EA4CCE4-E406-4481-AA90-9A07CAD5BE7E}"/>
   <tableColumns count="7">
@@ -3639,50 +4072,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}" name="CyberSecModules" displayName="CyberSecModules" ref="A2:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F11" xr:uid="{788C9EAD-B8A7-4E97-A5AD-984A0BD58BD0}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D2F9F639-DE00-4891-82FC-F2AFD9BED136}" name="Name" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{4A6B316E-C867-46CE-9E04-295046356E23}" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C3FB9A35-9CAA-490E-B5DD-3FB2B7EAFF24}" name="Autumn" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{7E3D05E3-EEED-4E51-9F2B-7A430A5FFFF9}" name="Spring" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{CC9BCECD-842A-4322-8A50-9292CE0AE138}" name="Summer" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E6BCA339-BC30-44BF-9D15-3F15733224FF}" name="Select?" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{20D3C205-D24B-481F-A0A5-97A6101B312A}" name="DSA" displayName="DSA" ref="A2:G7" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A2:G7" xr:uid="{20D3C205-D24B-481F-A0A5-97A6101B312A}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2270E0A8-E28C-4AF9-BFC1-A412E0725E4C}" name="Assessment" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{7052E14A-65AF-43E2-8483-D779564FD6C0}" name="Type" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{63A96BCC-5661-4CA8-9927-9E1FA068D3C4}" name="Date" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{1F33FCAA-DEEE-45E2-89E6-03E71911E17F}" name="Weight" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{F1F6B912-427B-4B79-AD72-0E5794AA2EB0}" name="Marks" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{C6CD4014-F914-41A7-9044-7D2D5C20AB20}" name="Out Of" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{21C62A9F-30A4-4FEA-9205-6025E71D32F4}" name="Percent" dataDxfId="75">
-      <calculatedColumnFormula>IFERROR(DSA[[#This Row],[Marks]]/DSA[[#This Row],[Out Of]],0)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F35ED7B2-2694-475F-9750-DB6006F821CB}" name="FSAD" displayName="FSAD" ref="A2:G5" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F35ED7B2-2694-475F-9750-DB6006F821CB}" name="FSAD" displayName="FSAD" ref="A2:G5" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A2:G5" xr:uid="{F35ED7B2-2694-475F-9750-DB6006F821CB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E80B8A59-3B9F-4512-8A91-0C6601A07EE2}" name="Assessment" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{E5D6FFF2-E218-4868-ADD3-69587A76F673}" name="Type" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{59C1D46E-21B1-49C7-8032-C8F8375176BE}" name="Date" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{74073497-F8B4-4CA4-AE6C-18AF43D79BB4}" name="Weight" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{E1196646-88EC-4C14-B54C-30FABBD9067B}" name="Marks" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{F7783659-DAB3-47F3-B843-4B680178AE5A}" name="Out Of" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{63276932-3C7D-439A-979B-4B0ECD257653}" name="Percent" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{E80B8A59-3B9F-4512-8A91-0C6601A07EE2}" name="Assessment" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{E5D6FFF2-E218-4868-ADD3-69587A76F673}" name="Type" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{59C1D46E-21B1-49C7-8032-C8F8375176BE}" name="Date" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{74073497-F8B4-4CA4-AE6C-18AF43D79BB4}" name="Weight" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{E1196646-88EC-4C14-B54C-30FABBD9067B}" name="Marks" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{F7783659-DAB3-47F3-B843-4B680178AE5A}" name="Out Of" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{63276932-3C7D-439A-979B-4B0ECD257653}" name="Percent" dataDxfId="75">
       <calculatedColumnFormula>IFERROR(FSAD[[#This Row],[Marks]]/FSAD[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3690,53 +4090,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}" name="MLFCS" displayName="MLFCS" ref="A2:G15" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
-  <autoFilter ref="A2:G15" xr:uid="{B4AFA088-5628-4B0C-A947-DF271B3597BC}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{15DC20F1-D841-4813-BF61-022F87C55DD2}" name="Assessment" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{98565EC1-AB66-491E-907F-60B1C3C06AED}" name="Type" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{E226E69F-80DF-46D2-B2DB-919F4093C819}" name="Date" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{14002C37-7FC0-4B1E-9971-2BD856C2B2DB}" name="Weight" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{4896E73E-0ED6-41FF-AEF7-13DD8D5F34A7}" name="Marks" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{1D2BE4DF-6511-493E-AE36-FF8A538CC8FF}" name="Out Of" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{C9A7BCBC-9AE4-4642-AEA7-952B70FD4E74}" name="Percent" dataDxfId="57">
-      <calculatedColumnFormula>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}" name="OOP" displayName="OOP" ref="A2:G10" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
-  <autoFilter ref="A2:G10" xr:uid="{2622BBBF-6102-430C-9085-5B9BC95AF7B6}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8AF69D61-70B0-4B62-8A94-84FFD4FF1E30}" name="Assessment" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{6115B625-2524-4C13-BFC6-76AD80B08F00}" name="Type" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{8E7F7644-5258-47D7-BE01-F1673A9FC9F3}" name="Date" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{A9B92261-E9DB-46C0-9F8E-65E2E3C608F6}" name="Weight" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{CB9AA16B-15AA-4947-B2F6-F7C81AF67420}" name="Marks" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{9B24B904-A5F0-44D1-ACED-E4E0338FA6DF}" name="Out Of" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{1A8558B6-1346-45CB-8F71-8D91CA9265F5}" name="Percent" dataDxfId="48">
-      <calculatedColumnFormula>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}" name="ToC" displayName="ToC" ref="A2:G6" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}" name="ToC" displayName="ToC" ref="A2:G6" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A2:G6" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CDF6555C-D342-4021-B9FF-9231A38DA5EF}" name="Assessment" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{0A6E3F27-5B4C-4548-9B68-5286C8010E56}" name="Type" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{01393EE1-7332-41C1-8B5D-7D977756C9C5}" name="Date" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{B477AAC4-3E42-4DB0-B997-CE169F78BDCF}" name="Weight" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{2A11DED9-A358-45B0-A162-FEBB45D5F100}" name="Marks" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{719E8FEE-C849-4455-8702-29C54083DDEA}" name="Out Of" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{34631738-2C89-4800-B4BE-D5055E258300}" name="Percent" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{CDF6555C-D342-4021-B9FF-9231A38DA5EF}" name="Assessment" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{0A6E3F27-5B4C-4548-9B68-5286C8010E56}" name="Type" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{01393EE1-7332-41C1-8B5D-7D977756C9C5}" name="Date" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{B477AAC4-3E42-4DB0-B997-CE169F78BDCF}" name="Weight" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{2A11DED9-A358-45B0-A162-FEBB45D5F100}" name="Marks" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{719E8FEE-C849-4455-8702-29C54083DDEA}" name="Out Of" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{34631738-2C89-4800-B4BE-D5055E258300}" name="Percent" dataDxfId="66">
       <calculatedColumnFormula>IFERROR(ToC[[#This Row],[Marks]]/ToC[[#This Row],[Out Of]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3745,47 +4109,54 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}" name="Table1" displayName="Table1" ref="A2:E14" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A2:E14" xr:uid="{8C7F83F0-696F-4DA9-816E-95829FA77043}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E14">
-    <sortCondition ref="C2:C14"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D63AB25-C4F5-4F25-B996-68DBB88FA60D}" name="Module" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{1C29305E-3227-4597-BBEC-44A2B0E4CC4F}" name="Credits" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{B27A0533-DD77-42EF-8198-23242DE0BD7D}" name="Year" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{4D8DE3E4-490E-4E79-85EE-043DF7F56F53}" name="Semester" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{7AE710B2-1596-40DF-AA87-0DC058FAF3E4}" name="Total" dataDxfId="29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DB655A29-2F50-4A8D-81D1-0B1BDD7DA4AE}" name="ToC_12" displayName="ToC_12" ref="A2:G4" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+  <autoFilter ref="A2:G4" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6B590626-B820-427E-8C64-2792C41DE955}" name="Assessment" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{901E7B1E-FCA8-46C1-BF26-8633F26E90F0}" name="Type" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{58A1A291-50FD-4A7D-8317-980CF197DBBB}" name="Date" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{A20B7B37-43A0-48D8-8643-98FC882F382E}" name="Weight" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{3BBD5519-DA49-40A9-A7E2-AD6E89C86BC6}" name="Marks" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{CCF14CE4-A59B-4BC3-A6CA-19FB21209014}" name="Out Of" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{45226CD3-97F7-4032-80B2-778863E74C28}" name="Percent" dataDxfId="57">
+      <calculatedColumnFormula>IFERROR(ToC_12[[#This Row],[Marks]]/ToC_12[[#This Row],[Out Of]],0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}" name="Table5" displayName="Table5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:E27" xr:uid="{C2292A9A-0DCA-4512-A38F-6D0D6C40C4F6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
-    <sortCondition ref="D1:D27"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{45B78292-D524-4642-96FC-D0DF620F1A72}" name="Assessment" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{1CA06CD8-476D-4D7E-B485-B99253CDAB02}" name="Module" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{8951D55B-B6A3-4963-B426-3FFB2CC407BA}" name="Weight" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{8DF606BA-0DF3-4A1F-93E7-16047639F3B4}" name="Release" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{7E03F087-A839-4404-AF22-222490C90F19}" name="Due" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE07B470-8F1D-4A52-8AD8-3B99375FC6A3}" name="ToC_1213" displayName="ToC_1213" ref="A2:G6" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+  <autoFilter ref="A2:G6" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AB828AB9-8F3B-4C35-8CFD-C19EFCAA2BC5}" name="Assessment" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{B3012AD5-11B1-4B3C-969D-7049D2ECA2FA}" name="Type" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{A9431885-EBFA-465F-B8C4-1504D49101E7}" name="Date" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{67451775-2736-4070-ADF3-19E7B1BF820B}" name="Weight" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{86CC54FE-E031-4CBA-9D86-200A1596BE56}" name="Marks" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{B1AB665E-415F-4B96-9F77-DBA207467FA7}" name="Out Of" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{77D84C11-7AEE-4E48-8C0D-1D5DE8E65968}" name="Percent" dataDxfId="48">
+      <calculatedColumnFormula>IFERROR(ToC_1213[[#This Row],[Marks]]/ToC_1213[[#This Row],[Out Of]],0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}" name="FYModules" displayName="FYModules" ref="A2:D16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A2:D16" xr:uid="{AA52D200-724E-48EC-90EF-DCF7D39C9B67}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7F7F705C-BBFB-48B0-B110-926E8E1CF419}" name="Name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{99F42913-A4AF-439C-AFDE-38735B9668A7}" name="Semester 1" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{140A5CE5-3F0E-4A39-9385-36A06BB6BA02}" name="Semester 2" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B24B6960-A926-4304-9414-949D710BDB68}" name="Select?" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{9D0180C4-1F6D-4B3F-9934-FC6266FD711D}" name="ToC_121314" displayName="ToC_121314" ref="A2:G3" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A2:G3" xr:uid="{16BA8125-B1D9-4539-B13E-668F02ACD335}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F7792C8A-A06B-40E7-B7C9-F9814154FDCD}" name="Assessment" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{6579DB1F-3618-495A-96B4-8C103E91A5ED}" name="Type" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{3B4628ED-F7A0-4607-A977-140C90FD26DE}" name="Date" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{1B239B1C-8BAB-4864-9D71-0A398836AB53}" name="Weight" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{B6313695-2AF2-4339-B013-5FBA6E8F63A7}" name="Marks" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{D08B0302-87FC-4D89-8E46-0200922ED79C}" name="Out Of" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{FA171CB2-EC68-4641-BD90-F05DB16BD619}" name="Percent" dataDxfId="39">
+      <calculatedColumnFormula>IFERROR(ToC_121314[[#This Row],[Marks]]/ToC_121314[[#This Row],[Out Of]],0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4090,7 +4461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70942EC-847E-4481-B682-80D0CF4856E5}">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4100,43 +4473,43 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="E3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="H3" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="17"/>
+      <c r="B3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="H3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="19"/>
     </row>
     <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="B5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="11"/>
     </row>
     <row r="19" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="B19" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="11"/>
     </row>
   </sheetData>
@@ -4154,7 +4527,195 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CC5692-C878-420A-BFFF-01711C712A44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B93F00-3DF8-41A4-9AFE-DCB2B999F42E}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44900</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>100</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IFERROR(ToC_121314[[#This Row],[Marks]]/ToC_121314[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="15">
+        <f>SUMIF(ToC_121314[Type],"GP",ToC_121314[Weight])</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="15">
+        <f>(SUMIF(ToC_121314[Type],"GP",ToC_121314[Percent]))/COUNTIF(ToC_121314[Type],"GP")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="15">
+        <f>SUM(J1:J3)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <f>(J3*K3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84163C9-5C7F-4524-B245-15CC6A0E5B8B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4166,28 +4727,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD72CED1-6FE0-4594-B8EE-3BBD61F42FF7}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CC5692-C878-420A-BFFF-01711C712A44}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E049363-34FA-4883-A197-2C5318EC9872}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -4228,13 +4772,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4288,10 +4832,10 @@
         <f>MLFCS!K6</f>
         <v>0</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="18"/>
+      <c r="G4" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -4311,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5" s="7">
         <f>SUMIF(Table1[Year],"1",Table1[Total])/COUNTIF(Table1[Year],"1")</f>
@@ -4336,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6" s="7">
         <f>(SUMIFS(Table1[Total], Table1[Semester],"1",Table1[Year],"1"))/(COUNTIFS(Table1[Semester],"1",Table1[Year],"1"))</f>
@@ -4361,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <f>(SUMIFS(Table1[Total], Table1[Semester],"2",Table1[Year],"1"))/(COUNTIFS(Table1[Semester],"2",Table1[Year],"1"))</f>
@@ -4386,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" s="7">
         <f>SUMIF(Table1[Year],"2",Table1[Total])/COUNTIF(Table1[Year],"2")</f>
@@ -4406,9 +4950,12 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="8">
+        <f>FP!K4</f>
+        <v>0</v>
+      </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H9" s="7">
         <f>(SUMIFS(Table1[Total], Table1[Semester],"1",Table1[Year],"2"))/(COUNTIFS(Table1[Semester],"1",Table1[Year],"2"))</f>
@@ -4428,9 +4975,12 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="8">
+        <f>SEPP!K4</f>
+        <v>0</v>
+      </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H10" s="7">
         <f>(SUMIFS(Table1[Total],Table1[Semester],"2",Table1[Year],"2"))/(COUNTIFS(Table1[Semester],"2",Table1[Year],"2"))</f>
@@ -4439,7 +4989,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="B11" s="3">
         <v>20</v>
@@ -4450,9 +5000,12 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="8">
+        <f>OSSP!K5</f>
+        <v>0</v>
+      </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <f>IFERROR((SUMIF(Table1[Year],"3",Table1[Total])/COUNTIF(Table1[Year],"3")),0)</f>
@@ -4474,7 +5027,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -4493,13 +5046,13 @@
       </c>
       <c r="E13" s="3"/>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
         <v>20</v>
@@ -4539,7 +5092,7 @@
     <hyperlink ref="A9" location="FP!A1" display="Functional Programming" xr:uid="{C50E567A-3929-45DB-8466-F1DEACE9A8C1}"/>
     <hyperlink ref="A13" location="SN!A1" display="Security and Networks" xr:uid="{BF51BF97-7057-4C95-95B1-EACDB129727B}"/>
     <hyperlink ref="A10" location="SEPP!A1" display="Software Engineering and Professional Practice" xr:uid="{3F31D222-B598-4530-B223-BFAC15FB13E5}"/>
-    <hyperlink ref="A11" location="SPCC!A1" display="Systems Programming in C/C++" xr:uid="{4E3297C6-0985-4F71-B807-F214FECB5582}"/>
+    <hyperlink ref="A11" location="OSSP!A1" display="Operating Systems &amp; Systems Programming" xr:uid="{4E3297C6-0985-4F71-B807-F214FECB5582}"/>
     <hyperlink ref="A14" location="TP!A1" display="Team Project" xr:uid="{BDD03929-48A0-4950-AD17-88F22B9E1151}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4566,27 +5119,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="5">
         <v>0.05</v>
@@ -4595,15 +5148,15 @@
         <v>44472</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="5">
         <v>0.05</v>
@@ -4617,10 +5170,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5">
         <v>5.0000000000000001E-3</v>
@@ -4634,10 +5187,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5">
         <v>0.05</v>
@@ -4646,15 +5199,15 @@
         <v>44479</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="5">
         <v>5.0000000000000001E-3</v>
@@ -4668,10 +5221,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="5">
         <v>0.05</v>
@@ -4680,15 +5233,15 @@
         <v>44486</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="5">
         <v>0.05</v>
@@ -4702,10 +5255,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="5">
         <v>5.0000000000000001E-3</v>
@@ -4719,10 +5272,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="5">
         <v>5.0000000000000001E-3</v>
@@ -4736,10 +5289,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="5">
         <v>7.0000000000000007E-2</v>
@@ -4748,15 +5301,15 @@
         <v>44494</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5">
         <v>0.05</v>
@@ -4765,15 +5318,15 @@
         <v>44500</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5">
         <v>0.05</v>
@@ -4787,10 +5340,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="5">
         <v>0.35</v>
@@ -4804,10 +5357,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="5">
         <v>5.0000000000000001E-3</v>
@@ -4821,10 +5374,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5">
         <v>5.0000000000000001E-3</v>
@@ -4838,10 +5391,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="5">
         <v>5.0000000000000001E-3</v>
@@ -4855,10 +5408,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="5">
         <v>0.35</v>
@@ -4872,10 +5425,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="5">
         <v>0.05</v>
@@ -4889,10 +5442,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="5">
         <v>5.0000000000000001E-3</v>
@@ -4906,10 +5459,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" s="5">
         <v>0.08</v>
@@ -4918,15 +5471,15 @@
         <v>44522</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="5">
         <v>5.0000000000000001E-3</v>
@@ -4940,10 +5493,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="5">
         <v>0.05</v>
@@ -4952,15 +5505,15 @@
         <v>44535</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" s="5">
         <v>5.0000000000000001E-3</v>
@@ -4974,10 +5527,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="5">
         <v>0.05</v>
@@ -4986,15 +5539,15 @@
         <v>44542</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="5">
         <v>0.8</v>
@@ -5003,15 +5556,15 @@
         <v>44562</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="5">
         <v>0.8</v>
@@ -5020,7 +5573,7 @@
         <v>44562</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5052,34 +5605,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
@@ -5088,10 +5641,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3">
         <f>SUMIF(FYModules[Select?],"Yes",FYModules[Semester 1])</f>
@@ -5100,7 +5653,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -5109,10 +5662,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <f>SUMIF(FYModules[Select?],"Yes",FYModules[Semester 2])</f>
@@ -5122,7 +5675,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
@@ -5131,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -5143,7 +5696,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -5152,12 +5705,12 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -5166,12 +5719,12 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -5180,12 +5733,12 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1">
         <v>20</v>
@@ -5194,12 +5747,12 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1">
         <v>20</v>
@@ -5208,12 +5761,12 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1">
         <v>20</v>
@@ -5222,12 +5775,12 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -5236,12 +5789,12 @@
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1">
         <v>20</v>
@@ -5250,12 +5803,12 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1">
         <v>20</v>
@@ -5264,12 +5817,12 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1">
         <v>20</v>
@@ -5278,12 +5831,12 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -5292,7 +5845,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5343,45 +5896,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -5393,10 +5946,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I3">
         <f>SUMIF(CyberSecModules[Select?],"Yes",CyberSecModules[Autumn])</f>
@@ -5405,10 +5958,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -5420,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I4">
         <f>SUMIF(CyberSecModules[Select?],"Yes",CyberSecModules[Spring])</f>
@@ -5432,10 +5985,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -5447,10 +6000,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I5">
         <f>SUMIF(CyberSecModules[Select?],"Yes",CyberSecModules[Summer])</f>
@@ -5459,10 +6012,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -5474,7 +6027,7 @@
         <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -5486,10 +6039,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -5501,15 +6054,15 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -5521,15 +6074,15 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1">
         <v>20</v>
@@ -5541,15 +6094,15 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -5561,15 +6114,15 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1">
         <v>20</v>
@@ -5581,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5654,7 +6207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1144FBB-AEC5-4551-9239-4C950FA59EA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694825E1-042E-4FA4-8770-4069ED8A6469}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
@@ -5665,237 +6218,262 @@
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="11" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4">
-        <v>44610</v>
+        <v>44472</v>
       </c>
       <c r="D3" s="5">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G3" s="5">
-        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="5">
-        <f>SUMIF(AI[Type],"QZ",AI[Weight])</f>
-        <v>0.2</v>
-      </c>
-      <c r="K3" s="5">
-        <f>(SUMIF(AI[Type],"QZ",AI[Percent]))/COUNTIF(AI[Type],"QZ")</f>
+        <v>34</v>
+      </c>
+      <c r="J3" s="7">
+        <f>SUMIF(OOP[Type],"OT",OOP[Weight])</f>
+        <v>0.3</v>
+      </c>
+      <c r="K3" s="7">
+        <f>(SUMIF(OOP[Type],"OT",OOP[Percent]))/COUNTIF(OOP[Type],"OT")</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4">
-        <v>44624</v>
+        <v>44479</v>
       </c>
       <c r="D4" s="5">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5">
-        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="5">
-        <f>SUMIF(AI[Type],"EX",AI[Weight])</f>
-        <v>0.8</v>
-      </c>
-      <c r="K4" s="5">
-        <f>(SUMIF(AI[Type],"EX",AI[Percent]))/COUNTIF(AI[Type],"EX")</f>
+        <v>35</v>
+      </c>
+      <c r="J4" s="7">
+        <f>SUMIF(OOP[Type],"AS",OOP[Weight])</f>
+        <v>0.7</v>
+      </c>
+      <c r="K4" s="7">
+        <f>(SUMIF(OOP[Type],"AS",OOP[Percent]))/COUNTIF(OOP[Type],"AS")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4">
-        <v>44638</v>
+        <v>44486</v>
       </c>
       <c r="D5" s="5">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G5" s="5">
-        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="7">
         <f>SUM(J3:J4)</f>
         <v>1</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="7">
         <f>(J3*K3)+(J4*K4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
-        <v>44652</v>
+        <v>44500</v>
       </c>
       <c r="D6" s="5">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G6" s="5">
-        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4">
-        <v>44687</v>
+        <v>44535</v>
       </c>
       <c r="D7" s="5">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G7" s="5">
-        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4">
-        <v>44711</v>
+        <v>44542</v>
       </c>
       <c r="D8" s="5">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G8" s="5">
-        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
+        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44501</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.35</v>
+      </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="6">
+        <v>100</v>
+      </c>
+      <c r="G9" s="5">
+        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44519</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.35</v>
+      </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="6">
+        <v>100</v>
+      </c>
+      <c r="G10" s="5">
+        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5929,40 +6507,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -5970,10 +6548,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4">
         <v>44473</v>
@@ -5990,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="7">
         <f>SUMIF(DSA[Type],"QZ",DSA[Weight])</f>
@@ -6003,10 +6581,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4">
         <v>44487</v>
@@ -6023,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="7">
         <f>SUMIF(DSA[Type],"EX",DSA[Weight])</f>
@@ -6036,10 +6614,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4">
         <v>44501</v>
@@ -6069,10 +6647,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4">
         <v>44522</v>
@@ -6091,10 +6669,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C7" s="4">
         <v>44571</v>
@@ -6151,6 +6729,670 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566317CB-B83D-48BA-8EDF-AC71B60172C0}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44473</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="7">
+        <f>SUMIF(MLFCS[Type],"QZ",MLFCS[Weight])</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="K3" s="7">
+        <f>(SUMIF(MLFCS[Type],"QZ",MLFCS[Percent]))/COUNTIF(MLFCS[Type],"QZ")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44480</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="7">
+        <f>SUMIF(MLFCS[Type],"CT",MLFCS[Weight])</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="K4" s="7">
+        <f>(SUMIF(MLFCS[Type],"CT",MLFCS[Percent]))/COUNTIF(MLFCS[Type],"CT")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44487</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5">
+        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="7">
+        <f>SUMIF(MLFCS[Type],"EX",MLFCS[Weight])</f>
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="7">
+        <f>(SUMIF(MLFCS[Type],"EX",MLFCS[Percent]))/COUNTIF(MLFCS[Type],"EX")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44494</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="7">
+        <f>SUM(J3:J5)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <f>(J3*K3)+(J4*K4)+(J5*K5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44501</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44508</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5">
+        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44515</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5">
+        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44522</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5">
+        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44529</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5">
+        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44536</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>8</v>
+      </c>
+      <c r="G12" s="5">
+        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44494</v>
+      </c>
+      <c r="D13" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>40</v>
+      </c>
+      <c r="G13" s="5">
+        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44494</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>40</v>
+      </c>
+      <c r="G14" s="5">
+        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44571</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>40</v>
+      </c>
+      <c r="G15" s="5">
+        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1144FBB-AEC5-4551-9239-4C950FA59EA4}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="11" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44610</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="5">
+        <f>SUMIF(AI[Type],"QZ",AI[Weight])</f>
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="5">
+        <f>(SUMIF(AI[Type],"QZ",AI[Percent]))/COUNTIF(AI[Type],"QZ")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44624</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="5">
+        <f>SUMIF(AI[Type],"EX",AI[Weight])</f>
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="5">
+        <f>(SUMIF(AI[Type],"EX",AI[Percent]))/COUNTIF(AI[Type],"EX")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44638</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5">
+        <f>SUM(J3:J4)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <f>(J3*K3)+(J4*K4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44652</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5">
+        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44687</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44711</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>60</v>
+      </c>
+      <c r="G8" s="5">
+        <f>IFERROR(AI[[#This Row],[Marks]]/AI[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC581F71-13EA-4CC9-8894-8953E0805102}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -6173,40 +7415,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -6214,10 +7456,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="4">
         <v>44634</v>
@@ -6234,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="7">
         <f>SUMIF(FSAD[Type],"AS50",FSAD[Weight])</f>
@@ -6247,10 +7489,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4">
         <v>44684</v>
@@ -6267,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J4" s="7">
         <f>SUMIF(FSAD[Type],"AS25",FSAD[Weight])</f>
@@ -6280,10 +7522,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="4">
         <v>44697</v>
@@ -6355,695 +7597,6 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566317CB-B83D-48BA-8EDF-AC71B60172C0}">
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="4">
-        <v>44473</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5">
-        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="7">
-        <f>SUMIF(MLFCS[Type],"QZ",MLFCS[Weight])</f>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="K3" s="7">
-        <f>(SUMIF(MLFCS[Type],"QZ",MLFCS[Percent]))/COUNTIF(MLFCS[Type],"QZ")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44480</v>
-      </c>
-      <c r="D4" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5">
-        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="7">
-        <f>SUMIF(MLFCS[Type],"CT",MLFCS[Weight])</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="K4" s="7">
-        <f>(SUMIF(MLFCS[Type],"CT",MLFCS[Percent]))/COUNTIF(MLFCS[Type],"CT")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="4">
-        <v>44487</v>
-      </c>
-      <c r="D5" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5">
-        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="7">
-        <f>SUMIF(MLFCS[Type],"EX",MLFCS[Weight])</f>
-        <v>0.8</v>
-      </c>
-      <c r="K5" s="7">
-        <f>(SUMIF(MLFCS[Type],"EX",MLFCS[Percent]))/COUNTIF(MLFCS[Type],"EX")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44494</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5">
-        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="7">
-        <f>SUM(J3:J5)</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <f>(J3*K3)+(J4*K4)+(J5*K5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44501</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5">
-        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44508</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5">
-        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44515</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5">
-        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44522</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5">
-        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44529</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5">
-        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44536</v>
-      </c>
-      <c r="D12" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
-        <v>8</v>
-      </c>
-      <c r="G12" s="5">
-        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44494</v>
-      </c>
-      <c r="D13" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
-        <v>40</v>
-      </c>
-      <c r="G13" s="5">
-        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="4">
-        <v>44522</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
-        <v>40</v>
-      </c>
-      <c r="G14" s="5">
-        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4">
-        <v>44571</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
-        <v>40</v>
-      </c>
-      <c r="G15" s="5">
-        <f>IFERROR(MLFCS[[#This Row],[Marks]]/MLFCS[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694825E1-042E-4FA4-8770-4069ED8A6469}">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4">
-        <v>44472</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5">
-        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="7">
-        <f>SUMIF(OOP[Type],"OT",OOP[Weight])</f>
-        <v>0.3</v>
-      </c>
-      <c r="K3" s="7">
-        <f>(SUMIF(OOP[Type],"OT",OOP[Percent]))/COUNTIF(OOP[Type],"OT")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44479</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5">
-        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="7">
-        <f>SUMIF(OOP[Type],"AS",OOP[Weight])</f>
-        <v>0.7</v>
-      </c>
-      <c r="K4" s="7">
-        <f>(SUMIF(OOP[Type],"AS",OOP[Percent]))/COUNTIF(OOP[Type],"AS")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4">
-        <v>44486</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5">
-        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="7">
-        <f>SUM(J3:J4)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="7">
-        <f>(J3*K3)+(J4*K4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44500</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5">
-        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44535</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5">
-        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44542</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5">
-        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44501</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
-        <v>100</v>
-      </c>
-      <c r="G9" s="5">
-        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44519</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <v>100</v>
-      </c>
-      <c r="G10" s="5">
-        <f>IFERROR(OOP[[#This Row],[Marks]]/OOP[[#This Row],[Out Of]],0)</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7062,7 +7615,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7080,40 +7633,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
@@ -7121,10 +7674,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="4">
         <v>44623</v>
@@ -7141,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J3" s="15">
         <f>SUMIF(ToC[Type],"AS7",ToC[Weight])</f>
@@ -7154,10 +7707,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="4">
         <v>44651</v>
@@ -7174,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J4" s="15">
         <f>SUMIF(ToC[Type],"AS6",ToC[Weight])</f>
@@ -7187,10 +7740,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4">
         <v>44686</v>
@@ -7207,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="15">
         <f>SUMIF(ToC[Type],"EX",ToC[Weight])</f>
@@ -7220,10 +7773,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C6" s="4">
         <v>44707</v>
@@ -7301,27 +7854,434 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84163C9-5C7F-4524-B245-15CC6A0E5B8B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F37CC8-AF23-40EF-95EF-823281860794}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44873</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>50</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IFERROR(ToC_12[[#This Row],[Marks]]/ToC_12[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="15">
+        <f>SUMIF(ToC_12[Type],"CT",ToC_12[Weight])</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="15">
+        <f>(SUMIF(ToC_12[Type],"CT",ToC_12[Percent]))/COUNTIF(ToC_12[Type],"CT")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44901</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>50</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IFERROR(ToC_12[[#This Row],[Marks]]/ToC_12[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="15">
+        <f>SUM(J1:J3)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <f>(J3*K3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC5EC4E-B1AC-44EB-8745-90E14F1A70A6}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EB7C76-4B55-4119-B0F7-215CF5136795}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44855</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IFERROR(ToC_1213[[#This Row],[Marks]]/ToC_1213[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="15">
+        <f>SUMIF(ToC_1213[Type],"CW",ToC_1213[Weight])</f>
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="15">
+        <f>(SUMIF(ToC_1213[Type],"CW",ToC_1213[Percent]))/COUNTIF(ToC_1213[Type],"CW")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44879</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IFERROR(ToC_1213[[#This Row],[Marks]]/ToC_1213[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="15">
+        <f>SUMIF(ToC_1213[Type],"Exam",ToC_1213[Weight])</f>
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="15">
+        <f>(SUMIF(ToC_1213[Type],"Exam",ToC_1213[Percent]))/COUNTIF(ToC_1213[Type],"Exam")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44904</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5">
+        <f>IFERROR(ToC_1213[[#This Row],[Marks]]/ToC_1213[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="15">
+        <f>SUM(J2:J4)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <f>(J3*K3)+(J4*K4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5">
+        <f>IFERROR(ToC_1213[[#This Row],[Marks]]/ToC_1213[[#This Row],[Out Of]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>